--- a/DIFFERENT_T2/Jump_Freq_1200/Simulation_Spectra_Avg/1200Hz_simulation_0sigma_diffT2.xlsx
+++ b/DIFFERENT_T2/Jump_Freq_1200/Simulation_Spectra_Avg/1200Hz_simulation_0sigma_diffT2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbhatia/Ninja/Sabyasachi_Sen/Files/DIFFERENT_T2/Jump_Freq_1200/Simulation_Spectra_Avg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9E1BA-9476-C84A-BB8C-7F7619C2EAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB5C35-45ED-8949-85A0-408F18D1B520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="18660" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11060" yWindow="500" windowWidth="18660" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="213k_simulation_spectra_sigma_0" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,7 @@
   <dimension ref="A1:B1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +902,7 @@
         <v>-120</v>
       </c>
       <c r="B2">
-        <v>1.15455269953504E-2</v>
+        <v>1.2838083E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>-119.929929929929</v>
       </c>
       <c r="B3">
-        <v>1.1589738987841E-2</v>
+        <v>1.2887113E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>-119.859859859859</v>
       </c>
       <c r="B4">
-        <v>1.1634209409510999E-2</v>
+        <v>1.2936428999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>-119.789789789789</v>
       </c>
       <c r="B5">
-        <v>1.16789403015637E-2</v>
+        <v>1.2986032999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>-119.719719719719</v>
       </c>
       <c r="B6">
-        <v>1.17239337255434E-2</v>
+        <v>1.3035926E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>-119.64964964964901</v>
       </c>
       <c r="B7">
-        <v>1.1769191763581001E-2</v>
+        <v>1.3086113E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -950,7 +950,7 @@
         <v>-119.579579579579</v>
       </c>
       <c r="B8">
-        <v>1.1814716518641299E-2</v>
+        <v>1.3136594E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
         <v>-119.509509509509</v>
       </c>
       <c r="B9">
-        <v>1.1860510114775E-2</v>
+        <v>1.3187371999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>-119.439439439439</v>
       </c>
       <c r="B10">
-        <v>1.1906574697373599E-2</v>
+        <v>1.3238448999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>-119.369369369369</v>
       </c>
       <c r="B11">
-        <v>1.19529124334283E-2</v>
+        <v>1.3289828E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>-119.29929929929899</v>
       </c>
       <c r="B12">
-        <v>1.19995255117923E-2</v>
+        <v>1.3341512E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>-119.22922922922901</v>
       </c>
       <c r="B13">
-        <v>1.2046416143446601E-2</v>
+        <v>1.3393502E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>-119.159159159159</v>
       </c>
       <c r="B14">
-        <v>1.20935865617708E-2</v>
+        <v>1.3445801E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>-119.089089089089</v>
       </c>
       <c r="B15">
-        <v>1.21410390228157E-2</v>
+        <v>1.3498411E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>-119.019019019019</v>
       </c>
       <c r="B16">
-        <v>1.21887758055819E-2</v>
+        <v>1.3551336000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>-118.948948948948</v>
       </c>
       <c r="B17">
-        <v>1.2236799212300999E-2</v>
+        <v>1.3604578000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>-118.878878878878</v>
       </c>
       <c r="B18">
-        <v>1.2285111568721301E-2</v>
+        <v>1.3658138E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>-118.808808808808</v>
       </c>
       <c r="B19">
-        <v>1.2333715224397799E-2</v>
+        <v>1.3712021E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
         <v>-118.73873873873799</v>
       </c>
       <c r="B20">
-        <v>1.23826125529859E-2</v>
+        <v>1.3766227000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>-118.668668668668</v>
       </c>
       <c r="B21">
-        <v>1.24318059525399E-2</v>
+        <v>1.3820761000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1062,7 @@
         <v>-118.598598598598</v>
       </c>
       <c r="B22">
-        <v>1.2481297845815101E-2</v>
+        <v>1.3875624E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>-118.528528528528</v>
       </c>
       <c r="B23">
-        <v>1.25310906805754E-2</v>
+        <v>1.393082E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>-118.458458458458</v>
       </c>
       <c r="B24">
-        <v>1.2581186929903799E-2</v>
+        <v>1.3986350999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>-118.38838838838799</v>
       </c>
       <c r="B25">
-        <v>1.2631589092519E-2</v>
+        <v>1.4042219999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>-118.31831831831801</v>
       </c>
       <c r="B26">
-        <v>1.26822996930955E-2</v>
+        <v>1.4098429000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>-118.248248248248</v>
       </c>
       <c r="B27">
-        <v>1.2733321282589199E-2</v>
+        <v>1.4154981000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>-118.178178178178</v>
       </c>
       <c r="B28">
-        <v>1.27846564385667E-2</v>
+        <v>1.421188E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>-118.108108108108</v>
       </c>
       <c r="B29">
-        <v>1.28363077655406E-2</v>
+        <v>1.4269128000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>-118.038038038038</v>
       </c>
       <c r="B30">
-        <v>1.28882778953092E-2</v>
+        <v>1.4326728E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>-117.967967967967</v>
       </c>
       <c r="B31">
-        <v>1.29405694873009E-2</v>
+        <v>1.4384683000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>-117.897897897897</v>
       </c>
       <c r="B32">
-        <v>1.29931852289242E-2</v>
+        <v>1.4442996E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>-117.82782782782699</v>
       </c>
       <c r="B33">
-        <v>1.3046127835922801E-2</v>
+        <v>1.4501669999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>-117.75775775775701</v>
       </c>
       <c r="B34">
-        <v>1.3099400052735501E-2</v>
+        <v>1.4560707000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>-117.687687687687</v>
       </c>
       <c r="B35">
-        <v>1.3153004652862E-2</v>
+        <v>1.4620111999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>-117.617617617617</v>
       </c>
       <c r="B36">
-        <v>1.3206944439233899E-2</v>
+        <v>1.4679886E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>-117.547547547547</v>
       </c>
       <c r="B37">
-        <v>1.3261222244591499E-2</v>
+        <v>1.4740033E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>-117.477477477477</v>
       </c>
       <c r="B38">
-        <v>1.33158409318654E-2</v>
+        <v>1.4800557000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>-117.40740740740701</v>
       </c>
       <c r="B39">
-        <v>1.3370803394564999E-2</v>
+        <v>1.486146E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>-117.337337337337</v>
       </c>
       <c r="B40">
-        <v>1.3426112557171899E-2</v>
+        <v>1.4922746000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>-117.267267267267</v>
       </c>
       <c r="B41">
-        <v>1.3481771375539501E-2</v>
+        <v>1.4984417999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>-117.197197197197</v>
       </c>
       <c r="B42">
-        <v>1.35377828372992E-2</v>
+        <v>1.5046479E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>-117.127127127127</v>
       </c>
       <c r="B43">
-        <v>1.35941499622715E-2</v>
+        <v>1.5108932E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>-117.05705705705699</v>
       </c>
       <c r="B44">
-        <v>1.3650875802884399E-2</v>
+        <v>1.5171781000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>-116.986986986986</v>
       </c>
       <c r="B45">
-        <v>1.3707963444597999E-2</v>
+        <v>1.523503E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>-116.91691691691599</v>
       </c>
       <c r="B46">
-        <v>1.3765416006334699E-2</v>
+        <v>1.5298681E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>-116.84684684684601</v>
       </c>
       <c r="B47">
-        <v>1.38232366409172E-2</v>
+        <v>1.5362738000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>-116.776776776776</v>
       </c>
       <c r="B48">
-        <v>1.38814285355122E-2</v>
+        <v>1.5427204999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>-116.706706706706</v>
       </c>
       <c r="B49">
-        <v>1.39399949120813E-2</v>
+        <v>1.5492084999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>-116.636636636636</v>
       </c>
       <c r="B50">
-        <v>1.3998939027839E-2</v>
+        <v>1.5557382E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>-116.566566566566</v>
       </c>
       <c r="B51">
-        <v>1.40582641757171E-2</v>
+        <v>1.5623099E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>-116.49649649649599</v>
       </c>
       <c r="B52">
-        <v>1.41179736848369E-2</v>
+        <v>1.568924E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>-116.426426426426</v>
       </c>
       <c r="B53">
-        <v>1.41780709209885E-2</v>
+        <v>1.5755808999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1318,7 @@
         <v>-116.356356356356</v>
       </c>
       <c r="B54">
-        <v>1.4238559287117E-2</v>
+        <v>1.5822809E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>-116.286286286286</v>
       </c>
       <c r="B55">
-        <v>1.42994422238172E-2</v>
+        <v>1.5890244000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>-116.216216216216</v>
       </c>
       <c r="B56">
-        <v>1.4360723209835001E-2</v>
+        <v>1.5958119E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>-116.14614614614599</v>
       </c>
       <c r="B57">
-        <v>1.44224057625774E-2</v>
+        <v>1.6026436000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>-116.07607607607601</v>
       </c>
       <c r="B58">
-        <v>1.44844934386298E-2</v>
+        <v>1.60952E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>-116.006006006006</v>
       </c>
       <c r="B59">
-        <v>1.4546989834281701E-2</v>
+        <v>1.6164415000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>-115.93593593593501</v>
       </c>
       <c r="B60">
-        <v>1.46098985860608E-2</v>
+        <v>1.6234084999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>-115.865865865865</v>
       </c>
       <c r="B61">
-        <v>1.46732233712751E-2</v>
+        <v>1.6304213000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>-115.795795795795</v>
       </c>
       <c r="B62">
-        <v>1.4736967908563599E-2</v>
+        <v>1.6374804E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>-115.725725725725</v>
       </c>
       <c r="B63">
-        <v>1.4801135958456099E-2</v>
+        <v>1.6445861999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>-115.655655655655</v>
       </c>
       <c r="B64">
-        <v>1.4865731323941299E-2</v>
+        <v>1.6517390999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>-115.58558558558499</v>
       </c>
       <c r="B65">
-        <v>1.49307578510439E-2</v>
+        <v>1.6589395999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>-115.51551551551501</v>
       </c>
       <c r="B66">
-        <v>1.49962194294116E-2</v>
+        <v>1.666188E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>-115.445445445445</v>
       </c>
       <c r="B67">
-        <v>1.50621199929104E-2</v>
+        <v>1.6734848E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>-115.375375375375</v>
       </c>
       <c r="B68">
-        <v>1.512846352023E-2</v>
+        <v>1.6808304E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>-115.305305305305</v>
       </c>
       <c r="B69">
-        <v>1.5195254035498901E-2</v>
+        <v>1.6882253E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>-115.235235235235</v>
       </c>
       <c r="B70">
-        <v>1.52624956089087E-2</v>
+        <v>1.6956698999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
         <v>-115.16516516516501</v>
       </c>
       <c r="B71">
-        <v>1.5330192357349601E-2</v>
+        <v>1.7031647E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>-115.095095095095</v>
       </c>
       <c r="B72">
-        <v>1.53983484450548E-2</v>
+        <v>1.7107101E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>-115.025025025025</v>
       </c>
       <c r="B73">
-        <v>1.5466968084256001E-2</v>
+        <v>1.7183066E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
         <v>-114.954954954954</v>
       </c>
       <c r="B74">
-        <v>1.55360555358495E-2</v>
+        <v>1.7259547E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>-114.884884884884</v>
       </c>
       <c r="B75">
-        <v>1.56056151100728E-2</v>
+        <v>1.7336548E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>-114.814814814814</v>
       </c>
       <c r="B76">
-        <v>1.5675651167192099E-2</v>
+        <v>1.7414074000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>-114.744744744744</v>
       </c>
       <c r="B77">
-        <v>1.5746168118201599E-2</v>
+        <v>1.7492128999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>-114.67467467467399</v>
       </c>
       <c r="B78">
-        <v>1.5817170425533201E-2</v>
+        <v>1.7570720000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>-114.60460460460401</v>
       </c>
       <c r="B79">
-        <v>1.58886626037789E-2</v>
+        <v>1.7649850000000002E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>-114.534534534534</v>
       </c>
       <c r="B80">
-        <v>1.59606492204237E-2</v>
+        <v>1.7729524E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>-114.464464464464</v>
       </c>
       <c r="B81">
-        <v>1.6033134896592E-2</v>
+        <v>1.7809749E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1542,7 @@
         <v>-114.394394394394</v>
       </c>
       <c r="B82">
-        <v>1.6106124307804798E-2</v>
+        <v>1.7890527999999999E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>-114.324324324324</v>
       </c>
       <c r="B83">
-        <v>1.6179622184750601E-2</v>
+        <v>1.7971867999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
         <v>-114.25425425425399</v>
       </c>
       <c r="B84">
-        <v>1.6253633314068199E-2</v>
+        <v>1.8053772999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>-114.18418418418401</v>
       </c>
       <c r="B85">
-        <v>1.63281625391428E-2</v>
+        <v>1.8136248000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1574,7 @@
         <v>-114.114114114114</v>
       </c>
       <c r="B86">
-        <v>1.6403214760915E-2</v>
+        <v>1.8219300000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>-114.044044044044</v>
       </c>
       <c r="B87">
-        <v>1.6478794938703901E-2</v>
+        <v>1.8302932000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1590,7 @@
         <v>-113.973973973973</v>
       </c>
       <c r="B88">
-        <v>1.65549080910431E-2</v>
+        <v>1.8387152E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>-113.903903903903</v>
       </c>
       <c r="B89">
-        <v>1.6631559296530901E-2</v>
+        <v>1.8471964E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>-113.833833833833</v>
       </c>
       <c r="B90">
-        <v>1.67087536946952E-2</v>
+        <v>1.8557375000000001E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>-113.763763763763</v>
       </c>
       <c r="B91">
-        <v>1.67864964868722E-2</v>
+        <v>1.8643389E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>-113.69369369369301</v>
       </c>
       <c r="B92">
-        <v>1.68647929371003E-2</v>
+        <v>1.8730012000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1630,7 @@
         <v>-113.623623623623</v>
       </c>
       <c r="B93">
-        <v>1.6943648373028902E-2</v>
+        <v>1.8817251E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
         <v>-113.553553553553</v>
       </c>
       <c r="B94">
-        <v>1.7023068186842301E-2</v>
+        <v>1.8905112000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>-113.483483483483</v>
       </c>
       <c r="B95">
-        <v>1.7103057836199899E-2</v>
+        <v>1.8993599E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>-113.413413413413</v>
       </c>
       <c r="B96">
-        <v>1.71836228451916E-2</v>
+        <v>1.9082720000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>-113.34334334334299</v>
       </c>
       <c r="B97">
-        <v>1.7264768805309801E-2</v>
+        <v>1.9172479999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>-113.27327327327301</v>
       </c>
       <c r="B98">
-        <v>1.73465013764381E-2</v>
+        <v>1.9262886E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
         <v>-113.203203203203</v>
       </c>
       <c r="B99">
-        <v>1.7428826287856001E-2</v>
+        <v>1.9353944000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>-113.133133133133</v>
       </c>
       <c r="B100">
-        <v>1.7511749339262299E-2</v>
+        <v>1.944566E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>-113.063063063063</v>
       </c>
       <c r="B101">
-        <v>1.7595276401814599E-2</v>
+        <v>1.953804E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1702,7 @@
         <v>-112.992992992993</v>
       </c>
       <c r="B102">
-        <v>1.7679413419187402E-2</v>
+        <v>1.9631091999999999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>-112.922922922922</v>
       </c>
       <c r="B103">
-        <v>1.7764166408648301E-2</v>
+        <v>1.9724821E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>-112.852852852852</v>
       </c>
       <c r="B104">
-        <v>1.7849541462152601E-2</v>
+        <v>1.9819235000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1726,7 @@
         <v>-112.78278278278199</v>
       </c>
       <c r="B105">
-        <v>1.7935544747457101E-2</v>
+        <v>1.9914339999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>-112.712712712712</v>
       </c>
       <c r="B106">
-        <v>1.8022182509253099E-2</v>
+        <v>2.0010143000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,7 +1742,7 @@
         <v>-112.642642642642</v>
       </c>
       <c r="B107">
-        <v>1.8109461070319102E-2</v>
+        <v>2.0106651E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>-112.572572572572</v>
       </c>
       <c r="B108">
-        <v>1.81973868326934E-2</v>
+        <v>2.0203869999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1758,7 +1758,7 @@
         <v>-112.502502502502</v>
       </c>
       <c r="B109">
-        <v>1.8285966278867301E-2</v>
+        <v>2.0301809000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>-112.43243243243199</v>
       </c>
       <c r="B110">
-        <v>1.83752059729996E-2</v>
+        <v>2.0400472999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>-112.36236236236201</v>
       </c>
       <c r="B111">
-        <v>1.8465112562151401E-2</v>
+        <v>2.0499870999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>-112.292292292292</v>
       </c>
       <c r="B112">
-        <v>1.8555692777543799E-2</v>
+        <v>2.0600009999999998E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>-112.222222222222</v>
       </c>
       <c r="B113">
-        <v>1.86469534358371E-2</v>
+        <v>2.0700896999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>-112.152152152152</v>
       </c>
       <c r="B114">
-        <v>1.8738901440432099E-2</v>
+        <v>2.0802540000000001E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
         <v>-112.082082082082</v>
       </c>
       <c r="B115">
-        <v>1.88315437827958E-2</v>
+        <v>2.0904946000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1814,7 +1814,7 @@
         <v>-112.01201201201199</v>
       </c>
       <c r="B116">
-        <v>1.8924887543809499E-2</v>
+        <v>2.1008123E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1822,7 +1822,7 @@
         <v>-111.941941941941</v>
       </c>
       <c r="B117">
-        <v>1.9018939895141002E-2</v>
+        <v>2.1112078999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>-111.87187187187099</v>
       </c>
       <c r="B118">
-        <v>1.9113708100641901E-2</v>
+        <v>2.1216822E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>-111.80180180180101</v>
       </c>
       <c r="B119">
-        <v>1.92091995177694E-2</v>
+        <v>2.1322358999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>-111.731731731731</v>
       </c>
       <c r="B120">
-        <v>1.9305421599033298E-2</v>
+        <v>2.1428699999999998E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
         <v>-111.661661661661</v>
       </c>
       <c r="B121">
-        <v>1.94023818934695E-2</v>
+        <v>2.1535852000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
         <v>-111.591591591591</v>
       </c>
       <c r="B122">
-        <v>1.9500088048140199E-2</v>
+        <v>2.1643823999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
         <v>-111.521521521521</v>
       </c>
       <c r="B123">
-        <v>1.9598547809660201E-2</v>
+        <v>2.1752624000000002E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>-111.45145145145101</v>
       </c>
       <c r="B124">
-        <v>1.9697769025751499E-2</v>
+        <v>2.1862260000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>-111.381381381381</v>
       </c>
       <c r="B125">
-        <v>1.97977596468264E-2</v>
+        <v>2.1972742E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>-111.311311311311</v>
       </c>
       <c r="B126">
-        <v>1.9898527727598599E-2</v>
+        <v>2.2084078E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>-111.241241241241</v>
       </c>
       <c r="B127">
-        <v>2.00000814287239E-2</v>
+        <v>2.2196276000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>-111.171171171171</v>
       </c>
       <c r="B128">
-        <v>2.01024290184709E-2</v>
+        <v>2.2309347E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1918,7 +1918,7 @@
         <v>-111.10110110110099</v>
       </c>
       <c r="B129">
-        <v>2.0205578874422699E-2</v>
+        <v>2.2423299000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>-111.03103103103101</v>
       </c>
       <c r="B130">
-        <v>2.0309539485208899E-2</v>
+        <v>2.2538142000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1934,7 +1934,7 @@
         <v>-110.96096096095999</v>
       </c>
       <c r="B131">
-        <v>2.04143194522701E-2</v>
+        <v>2.2653883999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>-110.89089089089001</v>
       </c>
       <c r="B132">
-        <v>2.0519927491654801E-2</v>
+        <v>2.2770536000000001E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
         <v>-110.82082082082</v>
       </c>
       <c r="B133">
-        <v>2.0626372435849499E-2</v>
+        <v>2.2888105999999998E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>-110.75075075075</v>
       </c>
       <c r="B134">
-        <v>2.0733663235642501E-2</v>
+        <v>2.3006604999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>-110.68068068068</v>
       </c>
       <c r="B135">
-        <v>2.0841808962022201E-2</v>
+        <v>2.3126042999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>-110.61061061061</v>
       </c>
       <c r="B136">
-        <v>2.0950818808111501E-2</v>
+        <v>2.3246428999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>-110.54054054053999</v>
       </c>
       <c r="B137">
-        <v>2.10607020911373E-2</v>
+        <v>2.3367774000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <v>-110.47047047047</v>
       </c>
       <c r="B138">
-        <v>2.1171468254437199E-2</v>
+        <v>2.3490088999999999E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
         <v>-110.4004004004</v>
       </c>
       <c r="B139">
-        <v>2.1283126869503999E-2</v>
+        <v>2.3613381999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
         <v>-110.33033033033</v>
       </c>
       <c r="B140">
-        <v>2.13956876380684E-2</v>
+        <v>2.3737666000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>-110.26026026026</v>
       </c>
       <c r="B141">
-        <v>2.1509160394220701E-2</v>
+        <v>2.3862950000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
         <v>-110.19019019018999</v>
       </c>
       <c r="B142">
-        <v>2.1623555106573399E-2</v>
+        <v>2.3989245999999999E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2030,7 +2030,7 @@
         <v>-110.12012012012001</v>
       </c>
       <c r="B143">
-        <v>2.17388818804631E-2</v>
+        <v>2.4116565E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>-110.05005005005</v>
       </c>
       <c r="B144">
-        <v>2.1855150960196301E-2</v>
+        <v>2.4244918000000001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>-109.97997997997901</v>
       </c>
       <c r="B145">
-        <v>2.1972372731335999E-2</v>
+        <v>2.4374315000000001E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>-109.909909909909</v>
       </c>
       <c r="B146">
-        <v>2.2090557723032599E-2</v>
+        <v>2.4504768999999999E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>-109.839839839839</v>
       </c>
       <c r="B147">
-        <v>2.2209716610399999E-2</v>
+        <v>2.4636292000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2070,7 +2070,7 @@
         <v>-109.769769769769</v>
       </c>
       <c r="B148">
-        <v>2.2329860216935799E-2</v>
+        <v>2.4768894E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <v>-109.699699699699</v>
       </c>
       <c r="B149">
-        <v>2.2450999516989301E-2</v>
+        <v>2.4902588E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>-109.62962962962899</v>
       </c>
       <c r="B150">
-        <v>2.2573145638276001E-2</v>
+        <v>2.5037385999999998E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2094,7 +2094,7 @@
         <v>-109.55955955955901</v>
       </c>
       <c r="B151">
-        <v>2.2696309864441499E-2</v>
+        <v>2.5173300999999999E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>-109.489489489489</v>
       </c>
       <c r="B152">
-        <v>2.2820503637673701E-2</v>
+        <v>2.5310343999999999E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>-109.419419419419</v>
       </c>
       <c r="B153">
-        <v>2.2945738561367401E-2</v>
+        <v>2.5448529000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2118,7 +2118,7 @@
         <v>-109.349349349349</v>
       </c>
       <c r="B154">
-        <v>2.3072026402838699E-2</v>
+        <v>2.5587867E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>-109.279279279279</v>
       </c>
       <c r="B155">
-        <v>2.3199379096094E-2</v>
+        <v>2.5728372999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>-109.20920920920901</v>
       </c>
       <c r="B156">
-        <v>2.33278087446522E-2</v>
+        <v>2.5870059000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>-109.139139139139</v>
       </c>
       <c r="B157">
-        <v>2.3457327624422E-2</v>
+        <v>2.6012938999999999E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>-109.069069069069</v>
       </c>
       <c r="B158">
-        <v>2.3587948186635999E-2</v>
+        <v>2.6157026E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2158,7 +2158,7 @@
         <v>-108.998998998999</v>
       </c>
       <c r="B159">
-        <v>2.37196830608426E-2</v>
+        <v>2.6302334E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>-108.928928928928</v>
       </c>
       <c r="B160">
-        <v>2.3852545057956701E-2</v>
+        <v>2.6448876999999999E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>-108.858858858858</v>
       </c>
       <c r="B161">
-        <v>2.39865471733707E-2</v>
+        <v>2.6596668E-2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2182,7 +2182,7 @@
         <v>-108.788788788788</v>
       </c>
       <c r="B162">
-        <v>2.4121702590127098E-2</v>
+        <v>2.6745722999999999E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>-108.71871871871799</v>
       </c>
       <c r="B163">
-        <v>2.42580246821541E-2</v>
+        <v>2.6896056000000002E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>-108.64864864864801</v>
       </c>
       <c r="B164">
-        <v>2.4395527017566199E-2</v>
+        <v>2.7047681000000001E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>-108.578578578578</v>
       </c>
       <c r="B165">
-        <v>2.4534223362029501E-2</v>
+        <v>2.7200614000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2214,7 +2214,7 @@
         <v>-108.508508508508</v>
       </c>
       <c r="B166">
-        <v>2.46741276821957E-2</v>
+        <v>2.735487E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>-108.438438438438</v>
       </c>
       <c r="B167">
-        <v>2.4815254149203901E-2</v>
+        <v>2.7510462999999999E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>-108.368368368368</v>
       </c>
       <c r="B168">
-        <v>2.4957617142253301E-2</v>
+        <v>2.766741E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>-108.29829829829799</v>
       </c>
       <c r="B169">
-        <v>2.5101231252248099E-2</v>
+        <v>2.7825727000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>-108.22822822822801</v>
       </c>
       <c r="B170">
-        <v>2.5246111285515498E-2</v>
+        <v>2.7985428999999999E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>-108.158158158158</v>
       </c>
       <c r="B171">
-        <v>2.5392272267599599E-2</v>
+        <v>2.8146533000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2262,7 @@
         <v>-108.088088088088</v>
       </c>
       <c r="B172">
-        <v>2.5539729447131999E-2</v>
+        <v>2.8309055999999999E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>-108.018018018018</v>
       </c>
       <c r="B173">
-        <v>2.5688498299780999E-2</v>
+        <v>2.8473012999999998E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>-107.947947947947</v>
       </c>
       <c r="B174">
-        <v>2.58385945322822E-2</v>
+        <v>2.8638423E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2286,7 +2286,7 @@
         <v>-107.877877877877</v>
       </c>
       <c r="B175">
-        <v>2.5990034086550699E-2</v>
+        <v>2.8805303000000001E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
         <v>-107.807807807807</v>
       </c>
       <c r="B176">
-        <v>2.6142833143878198E-2</v>
+        <v>2.8973669000000001E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>-107.73773773773701</v>
       </c>
       <c r="B177">
-        <v>2.6297008129215801E-2</v>
+        <v>2.9143540999999999E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2310,7 +2310,7 @@
         <v>-107.667667667667</v>
       </c>
       <c r="B178">
-        <v>2.6452575715545799E-2</v>
+        <v>2.9314935E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>-107.597597597597</v>
       </c>
       <c r="B179">
-        <v>2.6609552828343399E-2</v>
+        <v>2.9487870999999999E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>-107.527527527527</v>
       </c>
       <c r="B180">
-        <v>2.6767956650131101E-2</v>
+        <v>2.9662366999999999E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>-107.457457457457</v>
       </c>
       <c r="B181">
-        <v>2.6927804625126998E-2</v>
+        <v>2.9838441E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>-107.38738738738699</v>
       </c>
       <c r="B182">
-        <v>2.7089114463990802E-2</v>
+        <v>3.0016114E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
         <v>-107.31731731731701</v>
       </c>
       <c r="B183">
-        <v>2.7251904148668099E-2</v>
+        <v>3.0195403999999999E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <v>-107.247247247247</v>
       </c>
       <c r="B184">
-        <v>2.7416191937336701E-2</v>
+        <v>3.0376330999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2366,7 +2366,7 @@
         <v>-107.177177177177</v>
       </c>
       <c r="B185">
-        <v>2.7581996369455599E-2</v>
+        <v>3.0558914999999999E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2374,7 @@
         <v>-107.107107107107</v>
       </c>
       <c r="B186">
-        <v>2.7749336270921899E-2</v>
+        <v>3.0743177999999999E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2382,7 @@
         <v>-107.037037037037</v>
       </c>
       <c r="B187">
-        <v>2.79182307593339E-2</v>
+        <v>3.0929137999999998E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2390,7 @@
         <v>-106.966966966966</v>
       </c>
       <c r="B188">
-        <v>2.8088699249368101E-2</v>
+        <v>3.1116819E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>-106.896896896896</v>
       </c>
       <c r="B189">
-        <v>2.82607614582682E-2</v>
+        <v>3.1306239999999999E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>-106.82682682682599</v>
       </c>
       <c r="B190">
-        <v>2.8434437411451099E-2</v>
+        <v>3.1497422999999997E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>-106.756756756756</v>
       </c>
       <c r="B191">
-        <v>2.8609747448233001E-2</v>
+        <v>3.1690390999999998E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,7 +2422,7 @@
         <v>-106.686686686686</v>
       </c>
       <c r="B192">
-        <v>2.87867122276763E-2</v>
+        <v>3.1885165E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>-106.616616616616</v>
       </c>
       <c r="B193">
-        <v>2.8965352734563202E-2</v>
+        <v>3.2081769000000003E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>-106.546546546546</v>
       </c>
       <c r="B194">
-        <v>2.9145690285495698E-2</v>
+        <v>3.2280226000000002E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>-106.47647647647599</v>
       </c>
       <c r="B195">
-        <v>2.9327746535128599E-2</v>
+        <v>3.2480558E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>-106.40640640640601</v>
       </c>
       <c r="B196">
-        <v>2.9511543482534999E-2</v>
+        <v>3.2682791000000003E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>-106.336336336336</v>
       </c>
       <c r="B197">
-        <v>2.9697103477710401E-2</v>
+        <v>3.2886947E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>-106.266266266266</v>
       </c>
       <c r="B198">
-        <v>2.9884449228217799E-2</v>
+        <v>3.3093050999999998E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2478,7 @@
         <v>-106.196196196196</v>
       </c>
       <c r="B199">
-        <v>3.0073603805976401E-2</v>
+        <v>3.3301128999999999E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
         <v>-106.126126126126</v>
       </c>
       <c r="B200">
-        <v>3.0264590654198599E-2</v>
+        <v>3.3511205000000002E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>-106.05605605605599</v>
       </c>
       <c r="B201">
-        <v>3.0457433594478001E-2</v>
+        <v>3.3723306000000002E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>-105.985985985985</v>
       </c>
       <c r="B202">
-        <v>3.06521568340326E-2</v>
+        <v>3.3937456999999997E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2510,7 @@
         <v>-105.91591591591499</v>
       </c>
       <c r="B203">
-        <v>3.0848784973106901E-2</v>
+        <v>3.4153685000000003E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2518,7 @@
         <v>-105.84584584584501</v>
       </c>
       <c r="B204">
-        <v>3.1047343012537101E-2</v>
+        <v>3.4372017999999997E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2526,7 @@
         <v>-105.775775775775</v>
       </c>
       <c r="B205">
-        <v>3.12478563614817E-2</v>
+        <v>3.4592481000000001E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
         <v>-105.705705705705</v>
       </c>
       <c r="B206">
-        <v>3.1450350845324597E-2</v>
+        <v>3.4815103999999999E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>-105.635635635635</v>
       </c>
       <c r="B207">
-        <v>3.1654852713751701E-2</v>
+        <v>3.5039914999999998E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>-105.565565565565</v>
       </c>
       <c r="B208">
-        <v>3.1861388649008199E-2</v>
+        <v>3.5266942000000003E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>-105.49549549549501</v>
       </c>
       <c r="B209">
-        <v>3.2069985774338103E-2</v>
+        <v>3.5496214999999998E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
         <v>-105.425425425425</v>
       </c>
       <c r="B210">
-        <v>3.22806716626136E-2</v>
+        <v>3.5727763000000003E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2574,7 +2574,7 @@
         <v>-105.355355355355</v>
       </c>
       <c r="B211">
-        <v>3.2493474345156197E-2</v>
+        <v>3.5961616000000002E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
         <v>-105.285285285285</v>
       </c>
       <c r="B212">
-        <v>3.27084223207562E-2</v>
+        <v>3.6197805999999999E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>-105.215215215215</v>
       </c>
       <c r="B213">
-        <v>3.2925544564894799E-2</v>
+        <v>3.6436362999999999E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2598,7 +2598,7 @@
         <v>-105.14514514514499</v>
       </c>
       <c r="B214">
-        <v>3.31448705391739E-2</v>
+        <v>3.6677319E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2606,7 +2606,7 @@
         <v>-105.07507507507501</v>
       </c>
       <c r="B215">
-        <v>3.3366430200959002E-2</v>
+        <v>3.6920706999999997E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2614,7 +2614,7 @@
         <v>-105.005005005005</v>
       </c>
       <c r="B216">
-        <v>3.3590254013239902E-2</v>
+        <v>3.7166560000000001E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2622,7 +2622,7 @@
         <v>-104.93493493493401</v>
       </c>
       <c r="B217">
-        <v>3.3816372954716102E-2</v>
+        <v>3.7414909000000003E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>-104.864864864864</v>
       </c>
       <c r="B218">
-        <v>3.4044818530110398E-2</v>
+        <v>3.7665790999999997E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,7 +2638,7 @@
         <v>-104.794794794794</v>
       </c>
       <c r="B219">
-        <v>3.4275622780719099E-2</v>
+        <v>3.7919238000000001E-2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2646,7 +2646,7 @@
         <v>-104.724724724724</v>
       </c>
       <c r="B220">
-        <v>3.4508818295201901E-2</v>
+        <v>3.8175286000000003E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2654,7 +2654,7 @@
         <v>-104.654654654654</v>
       </c>
       <c r="B221">
-        <v>3.4744438220620497E-2</v>
+        <v>3.8433970999999997E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>-104.58458458458399</v>
       </c>
       <c r="B222">
-        <v>3.4982516273729003E-2</v>
+        <v>3.8695329000000001E-2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2670,7 +2670,7 @@
         <v>-104.514514514514</v>
       </c>
       <c r="B223">
-        <v>3.5223086752526202E-2</v>
+        <v>3.8959396E-2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>-104.444444444444</v>
       </c>
       <c r="B224">
-        <v>3.5466184548073203E-2</v>
+        <v>3.9226210999999997E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
         <v>-104.374374374374</v>
       </c>
       <c r="B225">
-        <v>3.5711845156584598E-2</v>
+        <v>3.9495811999999998E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2694,7 +2694,7 @@
         <v>-104.304304304304</v>
       </c>
       <c r="B226">
-        <v>3.5960104691800103E-2</v>
+        <v>3.9768235999999998E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
         <v>-104.23423423423399</v>
       </c>
       <c r="B227">
-        <v>3.6210999897644203E-2</v>
+        <v>4.0043523999999997E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2710,7 +2710,7 @@
         <v>-104.16416416416401</v>
       </c>
       <c r="B228">
-        <v>3.6464568161180398E-2</v>
+        <v>4.0321716000000001E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>-104.094094094094</v>
       </c>
       <c r="B229">
-        <v>3.67208475258676E-2</v>
+        <v>4.0602853000000001E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2726,7 +2726,7 @@
         <v>-104.024024024024</v>
       </c>
       <c r="B230">
-        <v>3.69798767051275E-2</v>
+        <v>4.0886975999999998E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2734,7 +2734,7 @@
         <v>-103.953953953953</v>
       </c>
       <c r="B231">
-        <v>3.72416950962298E-2</v>
+        <v>4.1174126999999998E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>-103.883883883883</v>
       </c>
       <c r="B232">
-        <v>3.7506342794504502E-2</v>
+        <v>4.1464348999999998E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>-103.813813813813</v>
       </c>
       <c r="B233">
-        <v>3.7773860607888697E-2</v>
+        <v>4.1757687000000002E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>-103.743743743743</v>
       </c>
       <c r="B234">
-        <v>3.8044290071817401E-2</v>
+        <v>4.2054185000000001E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>-103.67367367367299</v>
       </c>
       <c r="B235">
-        <v>3.8317673464466802E-2</v>
+        <v>4.2353887E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>-103.60360360360301</v>
       </c>
       <c r="B236">
-        <v>3.8594053822359801E-2</v>
+        <v>4.2656841000000001E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>-103.533533533533</v>
       </c>
       <c r="B237">
-        <v>3.8873474956341997E-2</v>
+        <v>4.2963093000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2790,7 +2790,7 @@
         <v>-103.463463463463</v>
       </c>
       <c r="B238">
-        <v>3.91559814679397E-2</v>
+        <v>4.3272691000000002E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2798,7 +2798,7 @@
         <v>-103.393393393393</v>
       </c>
       <c r="B239">
-        <v>3.9441618766107599E-2</v>
+        <v>4.3585683E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,7 +2806,7 @@
         <v>-103.323323323323</v>
       </c>
       <c r="B240">
-        <v>3.9730433084379201E-2</v>
+        <v>4.3902119000000003E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>-103.25325325325301</v>
       </c>
       <c r="B241">
-        <v>4.0022471498427199E-2</v>
+        <v>4.4222048999999999E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
         <v>-103.183183183183</v>
       </c>
       <c r="B242">
-        <v>4.0317781944047899E-2</v>
+        <v>4.4545525000000002E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>-103.113113113113</v>
       </c>
       <c r="B243">
-        <v>4.0616413235578297E-2</v>
+        <v>4.4872598999999999E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
         <v>-103.043043043043</v>
       </c>
       <c r="B244">
-        <v>4.0918415084759102E-2</v>
+        <v>4.5203324000000003E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2846,7 +2846,7 @@
         <v>-102.972972972972</v>
       </c>
       <c r="B245">
-        <v>4.1223838120053202E-2</v>
+        <v>4.5537753E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>-102.902902902902</v>
       </c>
       <c r="B246">
-        <v>4.1532733906435297E-2</v>
+        <v>4.5875943000000002E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2862,7 +2862,7 @@
         <v>-102.832832832832</v>
       </c>
       <c r="B247">
-        <v>4.1845154965660297E-2</v>
+        <v>4.6217949000000001E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2870,7 +2870,7 @@
         <v>-102.76276276276199</v>
       </c>
       <c r="B248">
-        <v>4.21611547970282E-2</v>
+        <v>4.6563829000000001E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
         <v>-102.69269269269201</v>
       </c>
       <c r="B249">
-        <v>4.2480787898654102E-2</v>
+        <v>4.691364E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2886,7 +2886,7 @@
         <v>-102.622622622622</v>
       </c>
       <c r="B250">
-        <v>4.2804109789260997E-2</v>
+        <v>4.7267441E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>-102.552552552552</v>
       </c>
       <c r="B251">
-        <v>4.3131177030505501E-2</v>
+        <v>4.7625293999999999E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +2902,7 @@
         <v>-102.482482482482</v>
       </c>
       <c r="B252">
-        <v>4.3462047249853003E-2</v>
+        <v>4.7987259999999997E-2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>-102.412412412412</v>
       </c>
       <c r="B253">
-        <v>4.3796779164016801E-2</v>
+        <v>4.8353400999999997E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
         <v>-102.34234234234199</v>
       </c>
       <c r="B254">
-        <v>4.4135432602975498E-2</v>
+        <v>4.8723780000000001E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2926,7 +2926,7 @@
         <v>-102.27227227227201</v>
       </c>
       <c r="B255">
-        <v>4.4478068534583602E-2</v>
+        <v>4.9098464000000001E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
         <v>-102.202202202202</v>
       </c>
       <c r="B256">
-        <v>4.4824749089793302E-2</v>
+        <v>4.9477516999999999E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>-102.132132132132</v>
       </c>
       <c r="B257">
-        <v>4.51755375885022E-2</v>
+        <v>4.9861008999999998E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +2950,7 @@
         <v>-102.062062062062</v>
       </c>
       <c r="B258">
-        <v>4.5530498566043603E-2</v>
+        <v>5.0249005999999999E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +2958,7 @@
         <v>-101.99199199199199</v>
       </c>
       <c r="B259">
-        <v>4.58896978003379E-2</v>
+        <v>5.0641579999999999E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
         <v>-101.921921921921</v>
       </c>
       <c r="B260">
-        <v>4.6253202339721397E-2</v>
+        <v>5.1038801000000002E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>-101.85185185185099</v>
       </c>
       <c r="B261">
-        <v>4.6621080531472098E-2</v>
+        <v>5.1440742999999997E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +2982,7 @@
         <v>-101.78178178178101</v>
       </c>
       <c r="B262">
-        <v>4.6993402051050799E-2</v>
+        <v>5.1847478000000002E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>-101.711711711711</v>
       </c>
       <c r="B263">
-        <v>4.7370237932075399E-2</v>
+        <v>5.2259083999999997E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +2998,7 @@
         <v>-101.641641641641</v>
       </c>
       <c r="B264">
-        <v>4.7751660597051E-2</v>
+        <v>5.2675635999999998E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3006,7 @@
         <v>-101.571571571571</v>
       </c>
       <c r="B265">
-        <v>4.8137743888873402E-2</v>
+        <v>5.3097213999999997E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,7 +3014,7 @@
         <v>-101.501501501501</v>
       </c>
       <c r="B266">
-        <v>4.8528563103128398E-2</v>
+        <v>5.3523896000000001E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3022,7 +3022,7 @@
         <v>-101.43143143143099</v>
       </c>
       <c r="B267">
-        <v>4.8924195021208497E-2</v>
+        <v>5.3955765000000003E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>-101.36136136136101</v>
       </c>
       <c r="B268">
-        <v>4.9324717944267703E-2</v>
+        <v>5.4392903999999999E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>-101.291291291291</v>
       </c>
       <c r="B269">
-        <v>4.9730211728039E-2</v>
+        <v>5.4835397000000001E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
         <v>-101.221221221221</v>
       </c>
       <c r="B270">
-        <v>5.0140757818536101E-2</v>
+        <v>5.5283329999999999E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
         <v>-101.151151151151</v>
       </c>
       <c r="B271">
-        <v>5.0556439288664497E-2</v>
+        <v>5.5736792E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3062,7 +3062,7 @@
         <v>-101.081081081081</v>
       </c>
       <c r="B272">
-        <v>5.0977340875765803E-2</v>
+        <v>5.6195873E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3070,7 @@
         <v>-101.01101101101101</v>
       </c>
       <c r="B273">
-        <v>5.1403549020121002E-2</v>
+        <v>5.6660663E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3078,7 @@
         <v>-100.94094094094</v>
       </c>
       <c r="B274">
-        <v>5.1835151904438402E-2</v>
+        <v>5.7131256999999998E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
         <v>-100.87087087086999</v>
       </c>
       <c r="B275">
-        <v>5.2272239494352203E-2</v>
+        <v>5.7607748E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -3094,7 +3094,7 @@
         <v>-100.8008008008</v>
       </c>
       <c r="B276">
-        <v>5.2714903579960802E-2</v>
+        <v>5.8090236000000003E-2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>-100.73073073073</v>
       </c>
       <c r="B277">
-        <v>5.3163237818430999E-2</v>
+        <v>5.8578816999999998E-2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>-100.66066066066</v>
       </c>
       <c r="B278">
-        <v>5.3617337777697602E-2</v>
+        <v>5.9073595E-2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
         <v>-100.59059059059</v>
       </c>
       <c r="B279">
-        <v>5.40773009812884E-2</v>
+        <v>5.9574670000000003E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>-100.52052052051999</v>
       </c>
       <c r="B280">
-        <v>5.45432269543044E-2</v>
+        <v>6.0082149000000001E-2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>-100.45045045045001</v>
       </c>
       <c r="B281">
-        <v>5.5015217270586302E-2</v>
+        <v>6.0596139E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>-100.38038038038</v>
       </c>
       <c r="B282">
-        <v>5.5493375601099897E-2</v>
+        <v>6.1116747999999999E-2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3150,7 +3150,7 @@
         <v>-100.31031031031</v>
       </c>
       <c r="B283">
-        <v>5.59778077635723E-2</v>
+        <v>6.1644088999999999E-2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>-100.24024024024</v>
       </c>
       <c r="B284">
-        <v>5.6468621773412803E-2</v>
+        <v>6.2178275999999998E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>-100.17017017017</v>
       </c>
       <c r="B285">
-        <v>5.6965927895952999E-2</v>
+        <v>6.2719423999999996E-2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>-100.10010010009999</v>
       </c>
       <c r="B286">
-        <v>5.7469838700042297E-2</v>
+        <v>6.3267651999999994E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3182,7 +3182,7 @@
         <v>-100.03003003003001</v>
       </c>
       <c r="B287">
-        <v>5.7980469113032902E-2</v>
+        <v>6.3823081000000004E-2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>-99.959959959959903</v>
       </c>
       <c r="B288">
-        <v>5.8497936477193403E-2</v>
+        <v>6.4385834000000003E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3198,7 @@
         <v>-99.889889889889901</v>
       </c>
       <c r="B289">
-        <v>5.9022360607588503E-2</v>
+        <v>6.4956037999999994E-2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>-99.819819819819799</v>
       </c>
       <c r="B290">
-        <v>5.9553863851462802E-2</v>
+        <v>6.5533821000000006E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>-99.749749749749697</v>
       </c>
       <c r="B291">
-        <v>6.0092571149169598E-2</v>
+        <v>6.6119313999999998E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3222,7 +3222,7 @@
         <v>-99.679679679679694</v>
       </c>
       <c r="B292">
-        <v>6.0638610096685898E-2</v>
+        <v>6.6712650999999998E-2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>-99.609609609609606</v>
       </c>
       <c r="B293">
-        <v>6.1192111009753899E-2</v>
+        <v>6.7313969000000001E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <v>-99.539539539539504</v>
       </c>
       <c r="B294">
-        <v>6.1753206989692402E-2</v>
+        <v>6.7923407000000005E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -3246,7 +3246,7 @@
         <v>-99.469469469469402</v>
       </c>
       <c r="B295">
-        <v>6.2322033990923703E-2</v>
+        <v>6.8541108000000003E-2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -3254,7 +3254,7 @@
         <v>-99.3993993993994</v>
       </c>
       <c r="B296">
-        <v>6.2898730890256799E-2</v>
+        <v>6.9167218000000003E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>-99.329329329329298</v>
       </c>
       <c r="B297">
-        <v>6.3483439557976598E-2</v>
+        <v>6.9801883999999995E-2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
         <v>-99.259259259259196</v>
       </c>
       <c r="B298">
-        <v>6.4076304930783298E-2</v>
+        <v>7.0445259999999996E-2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>-99.189189189189193</v>
       </c>
       <c r="B299">
-        <v>6.4677475086630604E-2</v>
+        <v>7.1097497999999995E-2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>-99.119119119119105</v>
       </c>
       <c r="B300">
-        <v>6.5287101321512095E-2</v>
+        <v>7.1758759000000005E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>-99.049049049049003</v>
       </c>
       <c r="B301">
-        <v>6.5905338228243002E-2</v>
+        <v>7.2429202999999998E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>-98.978978978978901</v>
       </c>
       <c r="B302">
-        <v>6.6532343777291794E-2</v>
+        <v>7.3108994999999996E-2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,7 +3310,7 @@
         <v>-98.908908908908899</v>
       </c>
       <c r="B303">
-        <v>6.7168279399710207E-2</v>
+        <v>7.3798302999999996E-2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
         <v>-98.838838838838797</v>
       </c>
       <c r="B304">
-        <v>6.7813310072215097E-2</v>
+        <v>7.4497301000000002E-2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,7 +3326,7 @@
         <v>-98.768768768768695</v>
       </c>
       <c r="B305">
-        <v>6.8467604404477106E-2</v>
+        <v>7.5206163000000006E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,7 +3334,7 @@
         <v>-98.698698698698706</v>
       </c>
       <c r="B306">
-        <v>6.9131334728668795E-2</v>
+        <v>7.5925067999999998E-2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
         <v>-98.628628628628604</v>
       </c>
       <c r="B307">
-        <v>6.9804677191328698E-2</v>
+        <v>7.6654202000000005E-2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
         <v>-98.558558558558502</v>
       </c>
       <c r="B308">
-        <v>7.0487811847597795E-2</v>
+        <v>7.7393749999999997E-2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>-98.4884884884884</v>
       </c>
       <c r="B309">
-        <v>7.1180922757885498E-2</v>
+        <v>7.8143904E-2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <v>-98.418418418418398</v>
       </c>
       <c r="B310">
-        <v>7.1884198087021803E-2</v>
+        <v>7.8904859999999993E-2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3374,7 @@
         <v>-98.348348348348296</v>
       </c>
       <c r="B311">
-        <v>7.25978302059581E-2</v>
+        <v>7.9676816999999997E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>-98.278278278278293</v>
       </c>
       <c r="B312">
-        <v>7.3322015796071296E-2</v>
+        <v>8.045998E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>-98.208208208208205</v>
       </c>
       <c r="B313">
-        <v>7.4056955956135803E-2</v>
+        <v>8.1254557000000005E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3398,7 @@
         <v>-98.138138138138103</v>
       </c>
       <c r="B314">
-        <v>7.4802856312021507E-2</v>
+        <v>8.2060760999999996E-2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3406,7 @@
         <v>-98.068068068068001</v>
       </c>
       <c r="B315">
-        <v>7.5559927129181303E-2</v>
+        <v>8.2878810999999997E-2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
         <v>-97.997997997997999</v>
       </c>
       <c r="B316">
-        <v>7.63283834279877E-2</v>
+        <v>8.3708928000000002E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>-97.927927927927897</v>
       </c>
       <c r="B317">
-        <v>7.7108445101983294E-2</v>
+        <v>8.4551340000000003E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>-97.857857857857795</v>
       </c>
       <c r="B318">
-        <v>7.7900337039105802E-2</v>
+        <v>8.5406280000000001E-2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>-97.787787787787707</v>
       </c>
       <c r="B319">
-        <v>7.8704289245951395E-2</v>
+        <v>8.6273983999999998E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3446,7 +3446,7 @@
         <v>-97.717717717717704</v>
       </c>
       <c r="B320">
-        <v>7.9520536975138501E-2</v>
+        <v>8.7154697000000003E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3454,7 +3454,7 @@
         <v>-97.647647647647602</v>
       </c>
       <c r="B321">
-        <v>8.0349320855836306E-2</v>
+        <v>8.8048664999999998E-2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3462,7 +3462,7 @@
         <v>-97.5775775775775</v>
       </c>
       <c r="B322">
-        <v>8.1190887027518893E-2</v>
+        <v>8.8956144000000001E-2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>-97.507507507507498</v>
       </c>
       <c r="B323">
-        <v>8.2045487277007098E-2</v>
+        <v>8.9877391000000001E-2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>-97.437437437437396</v>
       </c>
       <c r="B324">
-        <v>8.2913379178861102E-2</v>
+        <v>9.0812671999999997E-2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>-97.367367367367294</v>
       </c>
       <c r="B325">
-        <v>8.3794826239183801E-2</v>
+        <v>9.1762258999999999E-2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
         <v>-97.297297297297305</v>
       </c>
       <c r="B326">
-        <v>8.4690098042894998E-2</v>
+        <v>9.2726427E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>-97.227227227227203</v>
       </c>
       <c r="B327">
-        <v>8.5599470404534E-2</v>
+        <v>9.3705460000000004E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3510,7 +3510,7 @@
         <v>-97.157157157157101</v>
       </c>
       <c r="B328">
-        <v>8.6523225522649599E-2</v>
+        <v>9.4699647999999997E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>-97.087087087086999</v>
       </c>
       <c r="B329">
-        <v>8.7461652137832399E-2</v>
+        <v>9.5709286000000005E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,7 +3526,7 @@
         <v>-97.017017017016997</v>
       </c>
       <c r="B330">
-        <v>8.8415045694440697E-2</v>
+        <v>9.6734677000000005E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>-96.946946946946895</v>
       </c>
       <c r="B331">
-        <v>8.9383708506075604E-2</v>
+        <v>9.7776130000000003E-2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3542,7 +3542,7 @@
         <v>-96.876876876876807</v>
       </c>
       <c r="B332">
-        <v>9.0367949924848007E-2</v>
+        <v>9.8833960999999998E-2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>-96.806806806806804</v>
       </c>
       <c r="B333">
-        <v>9.1368086514487704E-2</v>
+        <v>9.9908494E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3558,7 +3558,7 @@
         <v>-96.736736736736702</v>
       </c>
       <c r="B334">
-        <v>9.2384442227331498E-2</v>
+        <v>0.10100006</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
         <v>-96.6666666666666</v>
       </c>
       <c r="B335">
-        <v>9.3417348585232901E-2</v>
+        <v>0.10210899499999999</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3574,7 +3574,7 @@
         <v>-96.596596596596598</v>
       </c>
       <c r="B336">
-        <v>9.4467144864421898E-2</v>
+        <v>0.103235646</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>-96.526526526526496</v>
       </c>
       <c r="B337">
-        <v>9.5534178284344698E-2</v>
+        <v>0.104380366</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,7 +3590,7 @@
         <v>-96.456456456456394</v>
       </c>
       <c r="B338">
-        <v>9.6618804200506503E-2</v>
+        <v>0.105543516</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>-96.386386386386306</v>
       </c>
       <c r="B339">
-        <v>9.7721386301331606E-2</v>
+        <v>0.106725466</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>-96.316316316316303</v>
       </c>
       <c r="B340">
-        <v>9.8842296809049907E-2</v>
+        <v>0.107926592</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>-96.246246246246201</v>
       </c>
       <c r="B341">
-        <v>9.9981916684613495E-2</v>
+        <v>0.109147282</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3622,7 +3622,7 @@
         <v>-96.176176176176099</v>
       </c>
       <c r="B342">
-        <v>0.10114063583663201</v>
+        <v>0.110387929</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
         <v>-96.106106106106097</v>
       </c>
       <c r="B343">
-        <v>0.10231885333431399</v>
+        <v>0.111648938</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>-96.036036036035995</v>
       </c>
       <c r="B344">
-        <v>0.103516977624384</v>
+        <v>0.112930721</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>-95.965965965965907</v>
       </c>
       <c r="B345">
-        <v>0.10473542675193701</v>
+        <v>0.11423369999999999</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>-95.895895895895904</v>
       </c>
       <c r="B346">
-        <v>0.105974628585186</v>
+        <v>0.115558306</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3662,7 +3662,7 @@
         <v>-95.825825825825802</v>
       </c>
       <c r="B347">
-        <v>0.107235021044026</v>
+        <v>0.11690498000000001</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3670,7 +3670,7 @@
         <v>-95.7557557557557</v>
       </c>
       <c r="B348">
-        <v>0.108517052332347</v>
+        <v>0.118274173</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -3678,7 +3678,7 @@
         <v>-95.685685685685598</v>
       </c>
       <c r="B349">
-        <v>0.109821181173996</v>
+        <v>0.11966634600000001</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>-95.615615615615596</v>
       </c>
       <c r="B350">
-        <v>0.111147877052268</v>
+        <v>0.121081969</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
         <v>-95.545545545545494</v>
       </c>
       <c r="B351">
-        <v>0.112497620452811</v>
+        <v>0.12252152500000001</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
         <v>-95.475475475475406</v>
       </c>
       <c r="B352">
-        <v>0.11387090310977201</v>
+        <v>0.123985505</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <v>-95.405405405405403</v>
       </c>
       <c r="B353">
-        <v>0.115268228255022</v>
+        <v>0.12547441300000001</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>-95.335335335335301</v>
       </c>
       <c r="B354">
-        <v>0.116690110870259</v>
+        <v>0.12698876200000001</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>-95.265265265265199</v>
       </c>
       <c r="B355">
-        <v>0.11813707794175</v>
+        <v>0.12852907799999999</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,7 +3734,7 @@
         <v>-95.195195195195197</v>
       </c>
       <c r="B356">
-        <v>0.119609668717474</v>
+        <v>0.13009589899999999</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>-95.125125125125095</v>
       </c>
       <c r="B357">
-        <v>0.12110843496637</v>
+        <v>0.13168977200000001</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3750,7 +3750,7 @@
         <v>-95.055055055055007</v>
       </c>
       <c r="B358">
-        <v>0.12263394123936699</v>
+        <v>0.13331125799999999</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3758,7 +3758,7 @@
         <v>-94.984984984984905</v>
       </c>
       <c r="B359">
-        <v>0.12418676513184899</v>
+        <v>0.13496093000000001</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3766,7 +3766,7 @@
         <v>-94.914914914914903</v>
       </c>
       <c r="B360">
-        <v>0.12576749754715599</v>
+        <v>0.13663937400000001</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3774,7 +3774,7 @@
         <v>-94.8448448448448</v>
       </c>
       <c r="B361">
-        <v>0.12737674296068099</v>
+        <v>0.13834718600000001</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
         <v>-94.774774774774698</v>
       </c>
       <c r="B362">
-        <v>0.129015119684084</v>
+        <v>0.140084978</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>-94.704704704704696</v>
       </c>
       <c r="B363">
-        <v>0.13068326012909201</v>
+        <v>0.141853373</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3798,7 +3798,7 @@
         <v>-94.634634634634594</v>
       </c>
       <c r="B364">
-        <v>0.132381811070306</v>
+        <v>0.143653006</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>-94.564564564564506</v>
       </c>
       <c r="B365">
-        <v>0.13411143390636901</v>
+        <v>0.14548453</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>-94.494494494494504</v>
       </c>
       <c r="B366">
-        <v>0.135872804918795</v>
+        <v>0.14734860599999999</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
         <v>-94.424424424424402</v>
       </c>
       <c r="B367">
-        <v>0.13766661552771101</v>
+        <v>0.14924591200000001</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>-94.3543543543543</v>
       </c>
       <c r="B368">
-        <v>0.13949357254365899</v>
+        <v>0.15117713899999999</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>-94.284284284284197</v>
       </c>
       <c r="B369">
-        <v>0.14135439841456399</v>
+        <v>0.15314299200000001</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>-94.214214214214195</v>
       </c>
       <c r="B370">
-        <v>0.143249831466886</v>
+        <v>0.15514419199999999</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -3854,7 +3854,7 @@
         <v>-94.144144144144093</v>
       </c>
       <c r="B371">
-        <v>0.14518062613987501</v>
+        <v>0.15718147099999999</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>-94.074074074074005</v>
       </c>
       <c r="B372">
-        <v>0.14714755321178299</v>
+        <v>0.15925557800000001</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>-94.004004004004003</v>
       </c>
       <c r="B373">
-        <v>0.149151400016759</v>
+        <v>0.161367277</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>-93.933933933933901</v>
       </c>
       <c r="B374">
-        <v>0.15119297065110299</v>
+        <v>0.16351734400000001</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
         <v>-93.863863863863799</v>
       </c>
       <c r="B375">
-        <v>0.15327308616737301</v>
+        <v>0.165706572</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
         <v>-93.793793793793796</v>
       </c>
       <c r="B376">
-        <v>0.155392584754795</v>
+        <v>0.16793576900000001</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
         <v>-93.723723723723694</v>
       </c>
       <c r="B377">
-        <v>0.157552321904258</v>
+        <v>0.17020575800000001</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>-93.653653653653606</v>
       </c>
       <c r="B378">
-        <v>0.159753170556064</v>
+        <v>0.172517375</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -3918,7 +3918,7 @@
         <v>-93.583583583583504</v>
       </c>
       <c r="B379">
-        <v>0.16199602122845599</v>
+        <v>0.174871474</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -3926,7 +3926,7 @@
         <v>-93.513513513513502</v>
       </c>
       <c r="B380">
-        <v>0.16428178212481301</v>
+        <v>0.177268921</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>-93.4434434434434</v>
       </c>
       <c r="B381">
-        <v>0.16661137921724301</v>
+        <v>0.179710599</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
         <v>-93.373373373373298</v>
       </c>
       <c r="B382">
-        <v>0.16898575630412299</v>
+        <v>0.18219740500000001</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <v>-93.303303303303295</v>
       </c>
       <c r="B383">
-        <v>0.17140587503899199</v>
+        <v>0.18473025200000001</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -3958,7 +3958,7 @@
         <v>-93.233233233233193</v>
       </c>
       <c r="B384">
-        <v>0.17387271492801801</v>
+        <v>0.187310066</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>-93.163163163163105</v>
       </c>
       <c r="B385">
-        <v>0.176387273293036</v>
+        <v>0.189937789</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -3974,7 +3974,7 @@
         <v>-93.093093093093103</v>
       </c>
       <c r="B386">
-        <v>0.178950565197006</v>
+        <v>0.192614375</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <v>-93.023023023023001</v>
       </c>
       <c r="B387">
-        <v>0.18156362332848999</v>
+        <v>0.19534079400000001</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
         <v>-92.952952952952899</v>
       </c>
       <c r="B388">
-        <v>0.18422749784154799</v>
+        <v>0.198118029</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -3998,7 +3998,7 @@
         <v>-92.882882882882797</v>
       </c>
       <c r="B389">
-        <v>0.18694325614722801</v>
+        <v>0.200947077</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
         <v>-92.812812812812794</v>
       </c>
       <c r="B390">
-        <v>0.189711982652568</v>
+        <v>0.20382894700000001</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -4014,7 +4014,7 @@
         <v>-92.742742742742706</v>
       </c>
       <c r="B391">
-        <v>0.19253477844280401</v>
+        <v>0.20676465999999999</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -4022,7 +4022,7 @@
         <v>-92.672672672672604</v>
       </c>
       <c r="B392">
-        <v>0.19541276090221199</v>
+        <v>0.209755251</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -4030,7 +4030,7 @@
         <v>-92.602602602602602</v>
       </c>
       <c r="B393">
-        <v>0.19834706326874299</v>
+        <v>0.212801763</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>-92.5325325325325</v>
       </c>
       <c r="B394">
-        <v>0.20133883411735701</v>
+        <v>0.21590525299999999</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>-92.462462462462398</v>
       </c>
       <c r="B395">
-        <v>0.20438923676665299</v>
+        <v>0.21906678600000001</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>-92.392392392392395</v>
       </c>
       <c r="B396">
-        <v>0.20749944860313499</v>
+        <v>0.22228743500000001</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>-92.322322322322293</v>
       </c>
       <c r="B397">
-        <v>0.210670660317158</v>
+        <v>0.22556828400000001</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -4070,7 +4070,7 @@
         <v>-92.252252252252205</v>
       </c>
       <c r="B398">
-        <v>0.21390407504428099</v>
+        <v>0.228910421</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>-92.182182182182103</v>
       </c>
       <c r="B399">
-        <v>0.217200907405486</v>
+        <v>0.232314943</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -4086,7 +4086,7 @@
         <v>-92.112112112112101</v>
       </c>
       <c r="B400">
-        <v>0.22056238243940901</v>
+        <v>0.23578294799999999</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>-92.042042042041999</v>
       </c>
       <c r="B401">
-        <v>0.22398973441943101</v>
+        <v>0.23931554099999999</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>-91.971971971971897</v>
       </c>
       <c r="B402">
-        <v>0.22748420554819901</v>
+        <v>0.242913826</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>-91.901901901901894</v>
       </c>
       <c r="B403">
-        <v>0.231047044521836</v>
+        <v>0.24657891000000001</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>-91.831831831831806</v>
       </c>
       <c r="B404">
-        <v>0.23467950495585699</v>
+        <v>0.25031189700000001</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
         <v>-91.761761761761704</v>
       </c>
       <c r="B405">
-        <v>0.23838284366450499</v>
+        <v>0.25411388899999998</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>-91.691691691691702</v>
       </c>
       <c r="B406">
-        <v>0.242158318785025</v>
+        <v>0.25798598</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>-91.6216216216216</v>
       </c>
       <c r="B407">
-        <v>0.246007187738115</v>
+        <v>0.26192926100000002</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
         <v>-91.551551551551498</v>
       </c>
       <c r="B408">
-        <v>0.24993070501564699</v>
+        <v>0.265944811</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
         <v>-91.481481481481396</v>
       </c>
       <c r="B409">
-        <v>0.25393011978656899</v>
+        <v>0.27003369700000002</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
         <v>-91.411411411411393</v>
       </c>
       <c r="B410">
-        <v>0.25800667331175597</v>
+        <v>0.27419697100000001</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>-91.341341341341305</v>
       </c>
       <c r="B411">
-        <v>0.26216159615854101</v>
+        <v>0.278435669</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -4182,7 +4182,7 @@
         <v>-91.271271271271203</v>
       </c>
       <c r="B412">
-        <v>0.26639610520559498</v>
+        <v>0.28275080699999999</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -4190,7 +4190,7 @@
         <v>-91.201201201201201</v>
       </c>
       <c r="B413">
-        <v>0.27071140042889502</v>
+        <v>0.28714337499999998</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4198,7 @@
         <v>-91.131131131131099</v>
       </c>
       <c r="B414">
-        <v>0.275108661459599</v>
+        <v>0.291614339</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
         <v>-91.061061061060997</v>
       </c>
       <c r="B415">
-        <v>0.27958904390485501</v>
+        <v>0.29616463199999998</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>-90.990990990990994</v>
       </c>
       <c r="B416">
-        <v>0.28415367542285302</v>
+        <v>0.30079515499999998</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -4222,7 +4222,7 @@
         <v>-90.920920920920906</v>
       </c>
       <c r="B417">
-        <v>0.288803651543799</v>
+        <v>0.30550676900000001</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -4230,7 +4230,7 @@
         <v>-90.850850850850804</v>
       </c>
       <c r="B418">
-        <v>0.29354003122898698</v>
+        <v>0.31030029399999998</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -4238,7 +4238,7 @@
         <v>-90.780780780780702</v>
       </c>
       <c r="B419">
-        <v>0.29836383216079099</v>
+        <v>0.315176503</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>-90.7107107107107</v>
       </c>
       <c r="B420">
-        <v>0.30327602575712098</v>
+        <v>0.320136117</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4254,7 @@
         <v>-90.640640640640598</v>
       </c>
       <c r="B421">
-        <v>0.30827753190483498</v>
+        <v>0.32517980099999999</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>-90.570570570570496</v>
       </c>
       <c r="B422">
-        <v>0.313369213407658</v>
+        <v>0.33030816000000002</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>-90.500500500500493</v>
       </c>
       <c r="B423">
-        <v>0.318551870145446</v>
+        <v>0.33552172899999999</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>-90.430430430430405</v>
       </c>
       <c r="B424">
-        <v>0.32382623294304702</v>
+        <v>0.340820976</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -4286,7 +4286,7 @@
         <v>-90.360360360360303</v>
       </c>
       <c r="B425">
-        <v>0.32919295714872199</v>
+        <v>0.346206285</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
         <v>-90.290290290290301</v>
       </c>
       <c r="B426">
-        <v>0.33465261592394902</v>
+        <v>0.35167796299999998</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,7 +4302,7 @@
         <v>-90.220220220220199</v>
       </c>
       <c r="B427">
-        <v>0.34020569324856398</v>
+        <v>0.35723622100000002</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>-90.150150150150097</v>
       </c>
       <c r="B428">
-        <v>0.34585257664756602</v>
+        <v>0.362881177</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -4318,7 +4318,7 @@
         <v>-90.080080080080094</v>
       </c>
       <c r="B429">
-        <v>0.35159354964855999</v>
+        <v>0.36861284700000002</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>-90.010010010010006</v>
       </c>
       <c r="B430">
-        <v>0.35742878398168498</v>
+        <v>0.37443113500000003</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <v>-89.939939939939904</v>
       </c>
       <c r="B431">
-        <v>0.36335833153707803</v>
+        <v>0.38033582999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -4342,7 +4342,7 @@
         <v>-89.869869869869802</v>
       </c>
       <c r="B432">
-        <v>0.36938211609836702</v>
+        <v>0.38632659899999999</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>-89.7997997997998</v>
       </c>
       <c r="B433">
-        <v>0.37549992487445499</v>
+        <v>0.39240297699999999</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -4358,7 +4358,7 @@
         <v>-89.729729729729698</v>
       </c>
       <c r="B434">
-        <v>0.38171139985582703</v>
+        <v>0.39856436200000001</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
         <v>-89.659659659659596</v>
       </c>
       <c r="B435">
-        <v>0.38801602902596499</v>
+        <v>0.404810008</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -4374,7 +4374,7 @@
         <v>-89.589589589589593</v>
       </c>
       <c r="B436">
-        <v>0.39441313746297502</v>
+        <v>0.41113901800000002</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>-89.519519519519505</v>
       </c>
       <c r="B437">
-        <v>0.40090187837133501</v>
+        <v>0.41755033600000002</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -4390,7 +4390,7 @@
         <v>-89.449449449449403</v>
       </c>
       <c r="B438">
-        <v>0.40748122408869197</v>
+        <v>0.424042737</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>-89.379379379379301</v>
       </c>
       <c r="B439">
-        <v>0.41414995711786901</v>
+        <v>0.43061482800000001</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -4406,7 +4406,7 @@
         <v>-89.309309309309299</v>
       </c>
       <c r="B440">
-        <v>0.42090666123953702</v>
+        <v>0.437265034</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -4414,7 +4414,7 @@
         <v>-89.239239239239197</v>
       </c>
       <c r="B441">
-        <v>0.42774971276651902</v>
+        <v>0.44399159199999999</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -4422,7 +4422,7 @@
         <v>-89.169169169169095</v>
       </c>
       <c r="B442">
-        <v>0.43467727200619199</v>
+        <v>0.45079255000000001</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -4430,7 +4430,7 @@
         <v>-89.099099099099107</v>
       </c>
       <c r="B443">
-        <v>0.44168727500288102</v>
+        <v>0.45766575399999998</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>-89.029029029029005</v>
       </c>
       <c r="B444">
-        <v>0.44877742563758699</v>
+        <v>0.46460884899999999</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>-88.958958958958902</v>
       </c>
       <c r="B445">
-        <v>0.45594518816754498</v>
+        <v>0.47161926900000001</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>-88.8888888888889</v>
       </c>
       <c r="B446">
-        <v>0.463187780293072</v>
+        <v>0.47869423300000002</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -4462,7 +4462,7 @@
         <v>-88.818818818818798</v>
       </c>
       <c r="B447">
-        <v>0.47050216684367502</v>
+        <v>0.48583074300000001</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>-88.748748748748696</v>
       </c>
       <c r="B448">
-        <v>0.47788505417945398</v>
+        <v>0.49302558200000002</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -4478,7 +4478,7 @@
         <v>-88.678678678678693</v>
       </c>
       <c r="B449">
-        <v>0.48533288540729802</v>
+        <v>0.50027530499999995</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>-88.608608608608606</v>
       </c>
       <c r="B450">
-        <v>0.49284183651401198</v>
+        <v>0.50757624499999998</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
         <v>-88.538538538538504</v>
       </c>
       <c r="B451">
-        <v>0.500407813520373</v>
+        <v>0.51492450599999995</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
         <v>-88.468468468468402</v>
       </c>
       <c r="B452">
-        <v>0.50802645076094599</v>
+        <v>0.52231596800000002</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4510,7 @@
         <v>-88.398398398398399</v>
       </c>
       <c r="B453">
-        <v>0.51569311039408605</v>
+        <v>0.52974628400000001</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>-88.328328328328297</v>
       </c>
       <c r="B454">
-        <v>0.52340288324504503</v>
+        <v>0.53721088500000003</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
         <v>-88.258258258258195</v>
       </c>
       <c r="B455">
-        <v>0.53115059108201002</v>
+        <v>0.544704984</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>-88.188188188188093</v>
       </c>
       <c r="B456">
-        <v>0.53893079042044401</v>
+        <v>0.55222357700000002</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -4542,7 +4542,7 @@
         <v>-88.118118118118105</v>
       </c>
       <c r="B457">
-        <v>0.54673777794489897</v>
+        <v>0.55976145399999999</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>-88.048048048048003</v>
       </c>
       <c r="B458">
-        <v>0.55456559762968605</v>
+        <v>0.56731320299999999</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>-87.977977977977901</v>
       </c>
       <c r="B459">
-        <v>0.56240804963009705</v>
+        <v>0.57487321999999996</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
         <v>-87.907907907907898</v>
       </c>
       <c r="B460">
-        <v>0.57025870100451104</v>
+        <v>0.58243571999999999</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -4574,7 +4574,7 @@
         <v>-87.837837837837796</v>
       </c>
       <c r="B461">
-        <v>0.57811089831445095</v>
+        <v>0.58999474900000004</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>-87.767767767767694</v>
       </c>
       <c r="B462">
-        <v>0.58595778213467198</v>
+        <v>0.59754419400000003</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -4590,7 +4590,7 @@
         <v>-87.697697697697706</v>
       </c>
       <c r="B463">
-        <v>0.59379230348858503</v>
+        <v>0.60507780099999997</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
         <v>-87.627627627627604</v>
       </c>
       <c r="B464">
-        <v>0.60160724220603701</v>
+        <v>0.61258919300000003</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>-87.557557557557502</v>
       </c>
       <c r="B465">
-        <v>0.60939522718066497</v>
+        <v>0.62007188000000002</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>-87.4874874874874</v>
       </c>
       <c r="B466">
-        <v>0.61714875848297002</v>
+        <v>0.62751928800000001</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
         <v>-87.417417417417397</v>
       </c>
       <c r="B467">
-        <v>0.62486023126323997</v>
+        <v>0.634924771</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -4630,7 +4630,7 @@
         <v>-87.347347347347295</v>
       </c>
       <c r="B468">
-        <v>0.63252196135562599</v>
+        <v>0.64228163599999999</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
         <v>-87.277277277277193</v>
       </c>
       <c r="B469">
-        <v>0.64012621247148005</v>
+        <v>0.64958316599999999</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4646,7 @@
         <v>-87.207207207207205</v>
       </c>
       <c r="B470">
-        <v>0.64766522484682798</v>
+        <v>0.65682264300000004</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4654,7 @@
         <v>-87.137137137137103</v>
       </c>
       <c r="B471">
-        <v>0.65513124518592203</v>
+        <v>0.66399337400000003</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>-87.067067067067001</v>
       </c>
       <c r="B472">
-        <v>0.66251655772072404</v>
+        <v>0.671088711</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>-86.996996996996998</v>
       </c>
       <c r="B473">
-        <v>0.66981351618515605</v>
+        <v>0.67810208400000005</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -4678,7 +4678,7 @@
         <v>-86.926926926926896</v>
       </c>
       <c r="B474">
-        <v>0.67701457648367902</v>
+        <v>0.68502702400000004</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -4686,7 +4686,7 @@
         <v>-86.856856856856794</v>
       </c>
       <c r="B475">
-        <v>0.68411232981648296</v>
+        <v>0.69185718699999998</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>-86.786786786786806</v>
       </c>
       <c r="B476">
-        <v>0.69109953600877405</v>
+        <v>0.69858638699999998</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4702,7 @@
         <v>-86.716716716716704</v>
       </c>
       <c r="B477">
-        <v>0.69796915677971805</v>
+        <v>0.70520861400000001</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>-86.646646646646602</v>
       </c>
       <c r="B478">
-        <v>0.70471438867785197</v>
+        <v>0.71171806999999998</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>-86.5765765765765</v>
       </c>
       <c r="B479">
-        <v>0.71132869540458799</v>
+        <v>0.71810918499999998</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>-86.506506506506497</v>
       </c>
       <c r="B480">
-        <v>0.71780583924588104</v>
+        <v>0.72437664800000001</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>-86.436436436436395</v>
       </c>
       <c r="B481">
-        <v>0.72413991133458</v>
+        <v>0.73051542899999999</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>-86.366366366366293</v>
       </c>
       <c r="B482">
-        <v>0.73032536047232199</v>
+        <v>0.73652080200000003</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>-86.296296296296305</v>
       </c>
       <c r="B483">
-        <v>0.73635702025022098</v>
+        <v>0.74238836399999997</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
         <v>-86.226226226226203</v>
       </c>
       <c r="B484">
-        <v>0.74223013422183004</v>
+        <v>0.74811405799999997</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>-86.156156156156101</v>
       </c>
       <c r="B485">
-        <v>0.74794037889986398</v>
+        <v>0.75369419000000004</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>-86.086086086085999</v>
       </c>
       <c r="B486">
-        <v>0.75348388436960501</v>
+        <v>0.75912544500000001</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -4782,7 +4782,7 @@
         <v>-86.016016016015996</v>
       </c>
       <c r="B487">
-        <v>0.75885725233650703</v>
+        <v>0.764404902</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -4790,7 +4790,7 @@
         <v>-85.945945945945894</v>
       </c>
       <c r="B488">
-        <v>0.76405757145283804</v>
+        <v>0.76953004300000005</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>-85.875875875875806</v>
       </c>
       <c r="B489">
-        <v>0.76908242979777397</v>
+        <v>0.77449876799999995</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>-85.805805805805804</v>
       </c>
       <c r="B490">
-        <v>0.77392992441666697</v>
+        <v>0.77930940000000004</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>-85.735735735735702</v>
       </c>
       <c r="B491">
-        <v>0.77859866785774401</v>
+        <v>0.78396069000000002</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>-85.6656656656656</v>
       </c>
       <c r="B492">
-        <v>0.78308779167755505</v>
+        <v>0.78845182199999997</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
         <v>-85.595595595595597</v>
       </c>
       <c r="B493">
-        <v>0.787396946919656</v>
+        <v>0.79278241100000002</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>-85.525525525525495</v>
       </c>
       <c r="B494">
-        <v>0.79152630160356197</v>
+        <v>0.796952506</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -4846,7 +4846,7 @@
         <v>-85.455455455455393</v>
       </c>
       <c r="B495">
-        <v>0.795476535292441</v>
+        <v>0.80096258200000003</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>-85.385385385385305</v>
       </c>
       <c r="B496">
-        <v>0.79924883083784304</v>
+        <v>0.80481353499999997</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>-85.315315315315303</v>
       </c>
       <c r="B497">
-        <v>0.80284486342742301</v>
+        <v>0.80850667499999995</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4870,7 @@
         <v>-85.245245245245201</v>
       </c>
       <c r="B498">
-        <v>0.80626678708681399</v>
+        <v>0.812043717</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -4878,7 +4878,7 @@
         <v>-85.175175175175099</v>
       </c>
       <c r="B499">
-        <v>0.80951721880902505</v>
+        <v>0.81542676700000005</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -4886,7 +4886,7 @@
         <v>-85.105105105105096</v>
       </c>
       <c r="B500">
-        <v>0.81259922050393596</v>
+        <v>0.81865830699999997</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>-85.035035035034994</v>
       </c>
       <c r="B501">
-        <v>0.81551627897617296</v>
+        <v>0.82174118299999999</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>-84.964964964964906</v>
       </c>
       <c r="B502">
-        <v>0.81827228415196496</v>
+        <v>0.82467858900000002</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
         <v>-84.894894894894904</v>
       </c>
       <c r="B503">
-        <v>0.82087150578436996</v>
+        <v>0.82747404499999999</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,7 +4918,7 @@
         <v>-84.824824824824802</v>
       </c>
       <c r="B504">
-        <v>0.823318568871513</v>
+        <v>0.83013137800000003</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>-84.7547547547547</v>
       </c>
       <c r="B505">
-        <v>0.825618428024395</v>
+        <v>0.83265470699999999</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
         <v>-84.684684684684598</v>
       </c>
       <c r="B506">
-        <v>0.82777634101946496</v>
+        <v>0.83504841799999996</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>-84.614614614614595</v>
       </c>
       <c r="B507">
-        <v>0.82979784176678495</v>
+        <v>0.83731714199999996</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -4950,7 +4950,7 @@
         <v>-84.544544544544493</v>
       </c>
       <c r="B508">
-        <v>0.83168871291749202</v>
+        <v>0.83946573700000005</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>-84.474474474474405</v>
       </c>
       <c r="B509">
-        <v>0.83345495832464001</v>
+        <v>0.84149926100000005</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>-84.404404404404403</v>
       </c>
       <c r="B510">
-        <v>0.83510277555975398</v>
+        <v>0.843422954</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>-84.334334334334301</v>
       </c>
       <c r="B511">
-        <v>0.83663852867384703</v>
+        <v>0.84524221300000002</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>-84.264264264264199</v>
       </c>
       <c r="B512">
-        <v>0.83806872137660604</v>
+        <v>0.84696257200000002</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>-84.194194194194196</v>
       </c>
       <c r="B513">
-        <v>0.83939997079126705</v>
+        <v>0.84858967799999996</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
         <v>-84.124124124124094</v>
       </c>
       <c r="B514">
-        <v>0.84063898192569997</v>
+        <v>0.85012927199999999</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -5006,7 +5006,7 @@
         <v>-84.054054054054006</v>
       </c>
       <c r="B515">
-        <v>0.84179252298279095</v>
+        <v>0.85158716599999995</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>-83.983983983983904</v>
       </c>
       <c r="B516">
-        <v>0.84286740161553397</v>
+        <v>0.85296922500000005</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -5022,7 +5022,7 @@
         <v>-83.913913913913902</v>
       </c>
       <c r="B517">
-        <v>0.84387044221469198</v>
+        <v>0.85428134499999997</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>-83.8438438438438</v>
       </c>
       <c r="B518">
-        <v>0.84480846429967904</v>
+        <v>0.85552943699999995</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -5038,7 +5038,7 @@
         <v>-83.773773773773698</v>
       </c>
       <c r="B519">
-        <v>0.84568826206661896</v>
+        <v>0.85671940599999996</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>-83.703703703703695</v>
       </c>
       <c r="B520">
-        <v>0.84651658513160299</v>
+        <v>0.85785713600000002</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -5054,7 +5054,7 @@
         <v>-83.633633633633593</v>
       </c>
       <c r="B521">
-        <v>0.84730012049210801</v>
+        <v>0.85894847399999996</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -5062,7 +5062,7 @@
         <v>-83.563563563563505</v>
       </c>
       <c r="B522">
-        <v>0.84804547571546995</v>
+        <v>0.85999921300000004</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>-83.493493493493503</v>
       </c>
       <c r="B523">
-        <v>0.84875916335035295</v>
+        <v>0.86101507899999996</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>-83.423423423423401</v>
       </c>
       <c r="B524">
-        <v>0.84944758654533203</v>
+        <v>0.86200171599999997</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,7 +5086,7 @@
         <v>-83.353353353353299</v>
       </c>
       <c r="B525">
-        <v>0.85011702584808102</v>
+        <v>0.86296467399999999</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,7 +5094,7 @@
         <v>-83.283283283283197</v>
       </c>
       <c r="B526">
-        <v>0.85077362714927296</v>
+        <v>0.86390940000000005</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5102,7 @@
         <v>-83.213213213213194</v>
       </c>
       <c r="B527">
-        <v>0.851423390727022</v>
+        <v>0.86484122100000005</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
         <v>-83.143143143143106</v>
       </c>
       <c r="B528">
-        <v>0.85207216134070496</v>
+        <v>0.86576533899999997</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>-83.073073073073004</v>
       </c>
       <c r="B529">
-        <v>0.85272561931704205</v>
+        <v>0.866686823</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>-83.003003003003002</v>
       </c>
       <c r="B530">
-        <v>0.85338927256647901</v>
+        <v>0.86761059299999999</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
         <v>-82.9329329329329</v>
       </c>
       <c r="B531">
-        <v>0.85406844946411598</v>
+        <v>0.86854141900000004</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -5142,7 +5142,7 @@
         <v>-82.862862862862798</v>
       </c>
       <c r="B532">
-        <v>0.85476829252650899</v>
+        <v>0.86948391400000002</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>-82.792792792792795</v>
       </c>
       <c r="B533">
-        <v>0.85549375281372098</v>
+        <v>0.87044252200000005</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5158,7 @@
         <v>-82.722722722722693</v>
       </c>
       <c r="B534">
-        <v>0.856249584984765</v>
+        <v>0.87142151700000003</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>-82.652652652652606</v>
       </c>
       <c r="B535">
-        <v>0.85704034293412901</v>
+        <v>0.87242499699999998</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
         <v>-82.582582582582504</v>
       </c>
       <c r="B536">
-        <v>0.85787037593725901</v>
+        <v>0.87345687400000005</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>-82.512512512512501</v>
       </c>
       <c r="B537">
-        <v>0.85874382523363302</v>
+        <v>0.87452087899999997</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,7 +5190,7 @@
         <v>-82.442442442442399</v>
       </c>
       <c r="B538">
-        <v>0.85966462097733398</v>
+        <v>0.87562054700000003</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -5198,7 +5198,7 @@
         <v>-82.372372372372297</v>
       </c>
       <c r="B539">
-        <v>0.86063647948676003</v>
+        <v>0.876759222</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5206,7 @@
         <v>-82.302302302302294</v>
       </c>
       <c r="B540">
-        <v>0.86166290072722196</v>
+        <v>0.87794004800000003</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>-82.232232232232207</v>
       </c>
       <c r="B541">
-        <v>0.86274716596262602</v>
+        <v>0.87916596700000005</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -5222,7 +5222,7 @@
         <v>-82.162162162162105</v>
       </c>
       <c r="B542">
-        <v>0.86389233551520095</v>
+        <v>0.88043971700000001</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
         <v>-82.092092092092102</v>
       </c>
       <c r="B543">
-        <v>0.86510124657519005</v>
+        <v>0.88176382600000003</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
         <v>-82.022022022022</v>
       </c>
       <c r="B544">
-        <v>0.86637651100567203</v>
+        <v>0.88314061300000002</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,7 +5246,7 @@
         <v>-81.951951951951898</v>
       </c>
       <c r="B545">
-        <v>0.86772051309104303</v>
+        <v>0.88457218000000004</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -5254,7 +5254,7 @@
         <v>-81.881881881881796</v>
       </c>
       <c r="B546">
-        <v>0.869135407181296</v>
+        <v>0.88606041300000005</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5262,7 @@
         <v>-81.811811811811793</v>
       </c>
       <c r="B547">
-        <v>0.87062311518791002</v>
+        <v>0.88760697799999999</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>-81.741741741741706</v>
       </c>
       <c r="B548">
-        <v>0.87218532389104197</v>
+        <v>0.88921331400000003</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
         <v>-81.671671671671604</v>
       </c>
       <c r="B549">
-        <v>0.87382348202173399</v>
+        <v>0.890880636</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>-81.601601601601601</v>
       </c>
       <c r="B550">
-        <v>0.87553879708694204</v>
+        <v>0.89260992699999997</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>-81.531531531531499</v>
       </c>
       <c r="B551">
-        <v>0.87733223190952403</v>
+        <v>0.89440193599999995</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -5302,7 +5302,7 @@
         <v>-81.461461461461397</v>
       </c>
       <c r="B552">
-        <v>0.87920450085972401</v>
+        <v>0.89625717400000005</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,7 +5310,7 @@
         <v>-81.391391391391394</v>
       </c>
       <c r="B553">
-        <v>0.88115606575933003</v>
+        <v>0.89817590899999999</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
         <v>-81.321321321321307</v>
       </c>
       <c r="B554">
-        <v>0.88318713144445404</v>
+        <v>0.90015816400000004</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>-81.251251251251205</v>
       </c>
       <c r="B555">
-        <v>0.88529764097789099</v>
+        <v>0.90220371300000002</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -5334,7 +5334,7 @@
         <v>-81.181181181181103</v>
       </c>
       <c r="B556">
-        <v>0.88748727050722898</v>
+        <v>0.90431207300000005</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -5342,7 +5342,7 @@
         <v>-81.1111111111111</v>
       </c>
       <c r="B557">
-        <v>0.88975542377037398</v>
+        <v>0.90648250200000002</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
         <v>-81.041041041040998</v>
       </c>
       <c r="B558">
-        <v>0.89210122625586097</v>
+        <v>0.90871399500000005</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
         <v>-80.970970970970896</v>
       </c>
       <c r="B559">
-        <v>0.89452351903140404</v>
+        <v>0.91100527600000003</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -5366,7 +5366,7 @@
         <v>-80.900900900900893</v>
       </c>
       <c r="B560">
-        <v>0.89702085226045003</v>
+        <v>0.91335479799999997</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
         <v>-80.830830830830806</v>
       </c>
       <c r="B561">
-        <v>0.89959147843321596</v>
+        <v>0.91576073000000002</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>-80.760760760760704</v>
       </c>
       <c r="B562">
-        <v>0.90223334534570898</v>
+        <v>0.91822095999999997</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>-80.690690690690701</v>
       </c>
       <c r="B563">
-        <v>0.90494408886765298</v>
+        <v>0.92073308499999995</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>-80.620620620620599</v>
       </c>
       <c r="B564">
-        <v>0.90772102554798095</v>
+        <v>0.92329440500000004</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>-80.550550550550497</v>
       </c>
       <c r="B565">
-        <v>0.91056114511472097</v>
+        <v>0.92590192100000002</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,7 +5414,7 @@
         <v>-80.480480480480495</v>
       </c>
       <c r="B566">
-        <v>0.91346110293457905</v>
+        <v>0.92855232899999995</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
         <v>-80.410410410410407</v>
       </c>
       <c r="B567">
-        <v>0.91641721250636998</v>
+        <v>0.93124201399999995</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -5430,7 +5430,7 @@
         <v>-80.340340340340305</v>
       </c>
       <c r="B568">
-        <v>0.91942543807157295</v>
+        <v>0.93396704600000002</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
         <v>-80.270270270270203</v>
       </c>
       <c r="B569">
-        <v>0.92248138743471597</v>
+        <v>0.93672317500000002</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -5446,7 +5446,7 @@
         <v>-80.2002002002002</v>
       </c>
       <c r="B570">
-        <v>0.92558030509589195</v>
+        <v>0.93950582999999999</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -5454,7 +5454,7 @@
         <v>-80.130130130130098</v>
       </c>
       <c r="B571">
-        <v>0.92871706580745395</v>
+        <v>0.94231011099999995</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>-80.060060060059996</v>
       </c>
       <c r="B572">
-        <v>0.93188616867671903</v>
+        <v>0.94513079200000005</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
         <v>-79.989989989989994</v>
       </c>
       <c r="B573">
-        <v>0.93508173194622501</v>
+        <v>0.94796231399999997</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>-79.919919919919906</v>
       </c>
       <c r="B574">
-        <v>0.93829748859254802</v>
+        <v>0.95079878699999998</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
         <v>-79.849849849849804</v>
       </c>
       <c r="B575">
-        <v>0.94152678289384495</v>
+        <v>0.95363398899999996</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -5494,7 +5494,7 @@
         <v>-79.779779779779702</v>
       </c>
       <c r="B576">
-        <v>0.94476256812485404</v>
+        <v>0.95646136699999995</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
         <v>-79.709709709709699</v>
       </c>
       <c r="B577">
-        <v>0.94799740554592304</v>
+        <v>0.95927403899999997</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5510,7 @@
         <v>-79.639639639639597</v>
       </c>
       <c r="B578">
-        <v>0.95122346485948905</v>
+        <v>0.962064798</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5518,7 @@
         <v>-79.569569569569495</v>
       </c>
       <c r="B579">
-        <v>0.95443252631308795</v>
+        <v>0.96482611699999998</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -5526,7 +5526,7 @@
         <v>-79.499499499499507</v>
       </c>
       <c r="B580">
-        <v>0.95761598463212705</v>
+        <v>0.96755015600000005</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -5534,7 +5534,7 @@
         <v>-79.429429429429405</v>
       </c>
       <c r="B581">
-        <v>0.96076485496803599</v>
+        <v>0.97022877100000005</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5542,7 @@
         <v>-79.359359359359303</v>
       </c>
       <c r="B582">
-        <v>0.96386978104773502</v>
+        <v>0.97285352000000003</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -5550,7 +5550,7 @@
         <v>-79.2892892892893</v>
       </c>
       <c r="B583">
-        <v>0.96692104570830795</v>
+        <v>0.97541568099999998</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>-79.219219219219198</v>
       </c>
       <c r="B584">
-        <v>0.96990858399600399</v>
+        <v>0.977906265</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>-79.149149149149096</v>
       </c>
       <c r="B585">
-        <v>0.97282199900097199</v>
+        <v>0.98031602799999995</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -5574,7 +5574,7 @@
         <v>-79.079079079079094</v>
       </c>
       <c r="B586">
-        <v>0.97565058058810195</v>
+        <v>0.98263549699999997</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
         <v>-79.009009009009006</v>
       </c>
       <c r="B587">
-        <v>0.97838332716973198</v>
+        <v>0.98485498599999999</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>-78.938938938938904</v>
       </c>
       <c r="B588">
-        <v>0.98100897064760295</v>
+        <v>0.98696462200000001</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5598,7 @@
         <v>-78.868868868868802</v>
       </c>
       <c r="B589">
-        <v>0.98351600462907096</v>
+        <v>0.98895436999999997</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
         <v>-78.798798798798799</v>
       </c>
       <c r="B590">
-        <v>0.98589271599598804</v>
+        <v>0.99081406299999997</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -5614,7 +5614,7 @@
         <v>-78.728728728728697</v>
       </c>
       <c r="B591">
-        <v>0.98812721987400698</v>
+        <v>0.99253343199999999</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -5622,7 +5622,7 @@
         <v>-78.658658658658595</v>
       </c>
       <c r="B592">
-        <v>0.990207498015094</v>
+        <v>0.99410214200000002</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -5630,7 +5630,7 @@
         <v>-78.588588588588607</v>
       </c>
       <c r="B593">
-        <v>0.99212144056704299</v>
+        <v>0.99550982600000004</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -5638,7 +5638,7 @@
         <v>-78.518518518518505</v>
       </c>
       <c r="B594">
-        <v>0.993856891160945</v>
+        <v>0.99674612299999998</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -5646,7 +5646,7 @@
         <v>-78.448448448448403</v>
       </c>
       <c r="B595">
-        <v>0.99540169520118504</v>
+        <v>0.99780071999999997</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -5654,7 +5654,7 @@
         <v>-78.378378378378301</v>
       </c>
       <c r="B596">
-        <v>0.99674375119313496</v>
+        <v>0.99866339800000004</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -5662,7 +5662,7 @@
         <v>-78.308308308308298</v>
       </c>
       <c r="B597">
-        <v>0.99787106489183097</v>
+        <v>0.99932406900000004</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
         <v>-78.238238238238196</v>
       </c>
       <c r="B598">
-        <v>0.99877180600135795</v>
+        <v>0.999772828</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -5678,7 +5678,7 @@
         <v>-78.168168168168094</v>
       </c>
       <c r="B599">
-        <v>0.99943436710018896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
         <v>-78.098098098098106</v>
       </c>
       <c r="B600">
-        <v>0.99984742441345997</v>
+        <v>0.99999618700000004</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>-78.028028028028004</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>0.99975231799999997</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>-77.957957957957902</v>
       </c>
       <c r="B602">
-        <v>0.999881524871298</v>
+        <v>0.99925969800000003</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>-77.887887887887899</v>
       </c>
       <c r="B603">
-        <v>0.99948190251251201</v>
+        <v>0.99851005999999998</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>-77.817817817817797</v>
       </c>
       <c r="B604">
-        <v>0.998791572233523</v>
+        <v>0.99749560999999998</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -5726,7 +5726,7 @@
         <v>-77.747747747747695</v>
       </c>
       <c r="B605">
-        <v>0.99780157174217998</v>
+        <v>0.99620907800000003</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -5734,7 +5734,7 @@
         <v>-77.677677677677593</v>
       </c>
       <c r="B606">
-        <v>0.99650359830344604</v>
+        <v>0.99464376499999996</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -5742,7 +5742,7 @@
         <v>-77.607607607607605</v>
       </c>
       <c r="B607">
-        <v>0.99489006782845202</v>
+        <v>0.99279358500000003</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -5750,7 +5750,7 @@
         <v>-77.537537537537503</v>
       </c>
       <c r="B608">
-        <v>0.99295417122736196</v>
+        <v>0.99065311099999998</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>-77.467467467467401</v>
       </c>
       <c r="B609">
-        <v>0.99068992736054295</v>
+        <v>0.98821761100000005</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -5766,7 +5766,7 @@
         <v>-77.397397397397398</v>
       </c>
       <c r="B610">
-        <v>0.98809223193427698</v>
+        <v>0.98548308699999998</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -5774,7 +5774,7 @@
         <v>-77.327327327327296</v>
       </c>
       <c r="B611">
-        <v>0.98515690171081405</v>
+        <v>0.98244630700000002</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -5782,7 +5782,7 @@
         <v>-77.257257257257194</v>
       </c>
       <c r="B612">
-        <v>0.98188071343785899</v>
+        <v>0.97910483100000001</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -5790,7 +5790,7 @@
         <v>-77.187187187187206</v>
       </c>
       <c r="B613">
-        <v>0.978261436949727</v>
+        <v>0.97545703900000003</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -5798,7 +5798,7 @@
         <v>-77.117117117117104</v>
       </c>
       <c r="B614">
-        <v>0.97429786195071499</v>
+        <v>0.97150214899999998</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
         <v>-77.047047047047002</v>
       </c>
       <c r="B615">
-        <v>0.96998981806009998</v>
+        <v>0.96724022799999998</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -5814,7 +5814,7 @@
         <v>-76.9769769769769</v>
       </c>
       <c r="B616">
-        <v>0.96533818777646296</v>
+        <v>0.96267220399999998</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -5822,7 +5822,7 @@
         <v>-76.906906906906897</v>
       </c>
       <c r="B617">
-        <v>0.96034491210537698</v>
+        <v>0.95779987</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -5830,7 +5830,7 @@
         <v>-76.836836836836795</v>
       </c>
       <c r="B618">
-        <v>0.95501298868725804</v>
+        <v>0.95262587799999998</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
         <v>-76.766766766766693</v>
       </c>
       <c r="B619">
-        <v>0.94934646235956999</v>
+        <v>0.94715373300000005</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>-76.696696696696705</v>
       </c>
       <c r="B620">
-        <v>0.94335040818754801</v>
+        <v>0.94138778099999998</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -5854,7 +5854,7 @@
         <v>-76.626626626626603</v>
       </c>
       <c r="B621">
-        <v>0.93703090709804504</v>
+        <v>0.93533318700000001</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -5862,7 +5862,7 @@
         <v>-76.556556556556501</v>
       </c>
       <c r="B622">
-        <v>0.93039501434993899</v>
+        <v>0.92899591400000003</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
         <v>-76.486486486486498</v>
       </c>
       <c r="B623">
-        <v>0.92345072116954796</v>
+        <v>0.92238268999999995</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -5878,7 +5878,7 @@
         <v>-76.416416416416396</v>
       </c>
       <c r="B624">
-        <v>0.91620690996873799</v>
+        <v>0.91550097500000005</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
         <v>-76.346346346346294</v>
       </c>
       <c r="B625">
-        <v>0.90867330364496302</v>
+        <v>0.90835892500000004</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -5894,7 +5894,7 @@
         <v>-76.276276276276207</v>
       </c>
       <c r="B626">
-        <v>0.90086040953468605</v>
+        <v>0.90096534399999995</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>-76.206206206206204</v>
       </c>
       <c r="B627">
-        <v>0.89277945865317798</v>
+        <v>0.89332964400000003</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>-76.136136136136102</v>
       </c>
       <c r="B628">
-        <v>0.88444234090331197</v>
+        <v>0.88546179000000003</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
         <v>-76.066066066066</v>
       </c>
       <c r="B629">
-        <v>0.87586153697314795</v>
+        <v>0.87737224899999999</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -5926,7 +5926,7 @@
         <v>-75.995995995995997</v>
       </c>
       <c r="B630">
-        <v>0.867050047666163</v>
+        <v>0.86907193900000002</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
         <v>-75.925925925925895</v>
       </c>
       <c r="B631">
-        <v>0.85802132141901799</v>
+        <v>0.860572169</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
         <v>-75.855855855855793</v>
       </c>
       <c r="B632">
-        <v>0.84878918075994503</v>
+        <v>0.85188458499999997</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -5950,7 +5950,7 @@
         <v>-75.785785785785706</v>
       </c>
       <c r="B633">
-        <v>0.83936774844676099</v>
+        <v>0.84302111099999999</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>-75.715715715715703</v>
       </c>
       <c r="B634">
-        <v>0.82977137399804501</v>
+        <v>0.83399389099999999</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
         <v>-75.645645645645601</v>
       </c>
       <c r="B635">
-        <v>0.82001456129510397</v>
+        <v>0.82481523499999998</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
         <v>-75.575575575575499</v>
       </c>
       <c r="B636">
-        <v>0.81011189788755</v>
+        <v>0.81549756100000004</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>-75.505505505505496</v>
       </c>
       <c r="B637">
-        <v>0.80007798658266005</v>
+        <v>0.80605333899999998</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -5990,7 +5990,7 @@
         <v>-75.435435435435394</v>
       </c>
       <c r="B638">
-        <v>0.78992737984001005</v>
+        <v>0.79649504199999999</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>-75.365365365365307</v>
       </c>
       <c r="B639">
-        <v>0.77967451742959604</v>
+        <v>0.78683508999999996</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>-75.295295295295304</v>
       </c>
       <c r="B640">
-        <v>0.769333667745278</v>
+        <v>0.77708580999999999</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -6014,7 +6014,7 @@
         <v>-75.225225225225202</v>
       </c>
       <c r="B641">
-        <v>0.75891887309748396</v>
+        <v>0.76725938000000005</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -6022,7 +6022,7 @@
         <v>-75.1551551551551</v>
       </c>
       <c r="B642">
-        <v>0.74844389924107702</v>
+        <v>0.75736779799999998</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>-75.085085085084998</v>
       </c>
       <c r="B643">
-        <v>0.73792218932739695</v>
+        <v>0.74742283200000004</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -6038,7 +6038,7 @@
         <v>-75.015015015014995</v>
       </c>
       <c r="B644">
-        <v>0.72736682240490302</v>
+        <v>0.73743599400000004</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -6046,7 +6046,7 @@
         <v>-74.944944944944893</v>
       </c>
       <c r="B645">
-        <v>0.71679047653153805</v>
+        <v>0.72741849800000002</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -6054,7 +6054,7 @@
         <v>-74.874874874874806</v>
       </c>
       <c r="B646">
-        <v>0.70620539650482805</v>
+        <v>0.717381237</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -6062,7 +6062,7 @@
         <v>-74.804804804804803</v>
       </c>
       <c r="B647">
-        <v>0.69562336616328702</v>
+        <v>0.70733475800000001</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -6070,7 +6070,7 @@
         <v>-74.734734734734701</v>
       </c>
       <c r="B648">
-        <v>0.68505568516558102</v>
+        <v>0.69728923300000001</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
         <v>-74.664664664664599</v>
       </c>
       <c r="B649">
-        <v>0.674513150112374</v>
+        <v>0.68725444700000005</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>-74.594594594594597</v>
       </c>
       <c r="B650">
-        <v>0.66400603983991202</v>
+        <v>0.67723977899999999</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -6094,7 +6094,7 @@
         <v>-74.524524524524494</v>
       </c>
       <c r="B651">
-        <v>0.65354410468435398</v>
+        <v>0.66725418800000003</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>-74.454454454454407</v>
       </c>
       <c r="B652">
-        <v>0.64313655949144299</v>
+        <v>0.65730620799999995</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
         <v>-74.384384384384305</v>
       </c>
       <c r="B653">
-        <v>0.63279208012715804</v>
+        <v>0.64740393699999998</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
         <v>-74.314314314314302</v>
       </c>
       <c r="B654">
-        <v>0.62251880323119702</v>
+        <v>0.63755503499999999</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
         <v>-74.2442442442442</v>
       </c>
       <c r="B655">
-        <v>0.61232432894614097</v>
+        <v>0.62776672</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -6134,7 +6134,7 @@
         <v>-74.174174174174098</v>
       </c>
       <c r="B656">
-        <v>0.60221572635063203</v>
+        <v>0.61804577299999996</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -6142,7 +6142,7 @@
         <v>-74.104104104104096</v>
       </c>
       <c r="B657">
-        <v>0.59219954132417796</v>
+        <v>0.60839853899999996</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>-74.034034034033994</v>
       </c>
       <c r="B658">
-        <v>0.58228180657416195</v>
+        <v>0.59883092800000004</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>-73.963963963963906</v>
       </c>
       <c r="B659">
-        <v>0.57246805356149</v>
+        <v>0.58934842799999998</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -6166,7 +6166,7 @@
         <v>-73.893893893893903</v>
       </c>
       <c r="B660">
-        <v>0.56276332606978796</v>
+        <v>0.57995610900000005</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>-73.823823823823801</v>
       </c>
       <c r="B661">
-        <v>0.55317219517366201</v>
+        <v>0.57065863500000003</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>-73.753753753753699</v>
       </c>
       <c r="B662">
-        <v>0.54369877537381694</v>
+        <v>0.56146027200000004</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
         <v>-73.683683683683597</v>
       </c>
       <c r="B663">
-        <v>0.53434674168042795</v>
+        <v>0.55236490100000002</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>-73.613613613613595</v>
       </c>
       <c r="B664">
-        <v>0.52511934744068001</v>
+        <v>0.54337603099999998</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -6206,7 +6206,7 @@
         <v>-73.543543543543507</v>
       </c>
       <c r="B665">
-        <v>0.51601944272150202</v>
+        <v>0.53449681400000004</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -6214,7 +6214,7 @@
         <v>-73.473473473473405</v>
       </c>
       <c r="B666">
-        <v>0.50704949307404001</v>
+        <v>0.52573005299999997</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>-73.403403403403402</v>
       </c>
       <c r="B667">
-        <v>0.498211598521828</v>
+        <v>0.51707822400000003</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
         <v>-73.3333333333333</v>
       </c>
       <c r="B668">
-        <v>0.48950751263004799</v>
+        <v>0.50854348299999996</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>-73.263263263263198</v>
       </c>
       <c r="B669">
-        <v>0.480938661528231</v>
+        <v>0.50012768900000004</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>-73.193193193193196</v>
       </c>
       <c r="B670">
-        <v>0.47250616277327601</v>
+        <v>0.49183241</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
         <v>-73.123123123123094</v>
       </c>
       <c r="B671">
-        <v>0.46421084395353901</v>
+        <v>0.48365894500000001</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
         <v>-73.053053053053006</v>
       </c>
       <c r="B672">
-        <v>0.45605326094795501</v>
+        <v>0.47560833400000002</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -6270,7 +6270,7 @@
         <v>-72.982982982982904</v>
       </c>
       <c r="B673">
-        <v>0.44803371576651402</v>
+        <v>0.46768137599999998</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
         <v>-72.912912912912901</v>
       </c>
       <c r="B674">
-        <v>0.44015227391003497</v>
+        <v>0.45987864000000001</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -6286,7 +6286,7 @@
         <v>-72.842842842842799</v>
       </c>
       <c r="B675">
-        <v>0.43240878119781601</v>
+        <v>0.45220048299999999</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -6294,7 +6294,7 @@
         <v>-72.772772772772697</v>
       </c>
       <c r="B676">
-        <v>0.424802880021728</v>
+        <v>0.44464705900000001</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>-72.702702702702695</v>
       </c>
       <c r="B677">
-        <v>0.41733402499414601</v>
+        <v>0.43721833799999998</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -6310,7 +6310,7 @@
         <v>-72.632632632632607</v>
       </c>
       <c r="B678">
-        <v>0.41000149796542701</v>
+        <v>0.42991411299999999</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -6318,7 +6318,7 @@
         <v>-72.562562562562505</v>
       </c>
       <c r="B679">
-        <v>0.40280442239384101</v>
+        <v>0.42273401599999999</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
         <v>-72.492492492492502</v>
       </c>
       <c r="B680">
-        <v>0.39574177705748997</v>
+        <v>0.41567753099999999</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -6334,7 +6334,7 @@
         <v>-72.4224224224224</v>
       </c>
       <c r="B681">
-        <v>0.38881240910350801</v>
+        <v>0.40874400100000002</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -6342,7 +6342,7 @@
         <v>-72.352352352352298</v>
       </c>
       <c r="B682">
-        <v>0.38201504643492901</v>
+        <v>0.40193264499999998</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -6350,7 +6350,7 @@
         <v>-72.282282282282296</v>
       </c>
       <c r="B683">
-        <v>0.37534830944004999</v>
+        <v>0.39524256400000002</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
         <v>-72.212212212212194</v>
       </c>
       <c r="B684">
-        <v>0.36881072207290999</v>
+        <v>0.38867275099999998</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -6366,7 +6366,7 @@
         <v>-72.142142142142106</v>
       </c>
       <c r="B685">
-        <v>0.362400722296775</v>
+        <v>0.38222210600000001</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>-72.072072072072004</v>
       </c>
       <c r="B686">
-        <v>0.35611667190525298</v>
+        <v>0.37588943899999999</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>-72.002002002002001</v>
       </c>
       <c r="B687">
-        <v>0.349956865737862</v>
+        <v>0.36967348100000003</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>-71.931931931931899</v>
       </c>
       <c r="B688">
-        <v>0.34391954030880501</v>
+        <v>0.36357289399999998</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -6398,7 +6398,7 @@
         <v>-71.861861861861797</v>
       </c>
       <c r="B689">
-        <v>0.33800288186903699</v>
+        <v>0.35758627399999998</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -6406,7 +6406,7 @@
         <v>-71.791791791791795</v>
       </c>
       <c r="B690">
-        <v>0.33220503392289902</v>
+        <v>0.35171216300000002</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -6414,7 +6414,7 @@
         <v>-71.721721721721707</v>
       </c>
       <c r="B691">
-        <v>0.326524104221324</v>
+        <v>0.34594905399999998</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>-71.651651651651605</v>
       </c>
       <c r="B692">
-        <v>0.32095817125418802</v>
+        <v>0.34029539800000003</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>-71.581581581581503</v>
       </c>
       <c r="B693">
-        <v>0.31550529026464902</v>
+        <v>0.33474960599999998</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>-71.5115115115115</v>
       </c>
       <c r="B694">
-        <v>0.31016349880838101</v>
+        <v>0.32931006299999999</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -6446,7 +6446,7 @@
         <v>-71.441441441441398</v>
       </c>
       <c r="B695">
-        <v>0.30493082188058002</v>
+        <v>0.32397512299999998</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>-71.371371371371296</v>
       </c>
       <c r="B696">
-        <v>0.29980527663330098</v>
+        <v>0.31874312199999999</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -6462,7 +6462,7 @@
         <v>-71.301301301301294</v>
       </c>
       <c r="B697">
-        <v>0.29478487670536202</v>
+        <v>0.31361238000000002</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>-71.231231231231206</v>
       </c>
       <c r="B698">
-        <v>0.28986763618656902</v>
+        <v>0.30858120100000003</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
         <v>-71.161161161161104</v>
       </c>
       <c r="B699">
-        <v>0.28505157323744501</v>
+        <v>0.30364788500000001</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -6486,7 +6486,7 @@
         <v>-71.091091091091101</v>
       </c>
       <c r="B700">
-        <v>0.28033471338501298</v>
+        <v>0.29881072400000003</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
         <v>-71.021021021020999</v>
       </c>
       <c r="B701">
-        <v>0.27571509251451298</v>
+        <v>0.29406800900000002</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -6502,7 +6502,7 @@
         <v>-70.950950950950897</v>
       </c>
       <c r="B702">
-        <v>0.271190759576174</v>
+        <v>0.28941803199999999</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>-70.880880880880895</v>
       </c>
       <c r="B703">
-        <v>0.26675977902544401</v>
+        <v>0.28485908999999998</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -6518,7 +6518,7 @@
         <v>-70.810810810810807</v>
       </c>
       <c r="B704">
-        <v>0.26242023301426498</v>
+        <v>0.28038948499999999</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -6526,7 +6526,7 @@
         <v>-70.740740740740705</v>
       </c>
       <c r="B705">
-        <v>0.258170223350212</v>
+        <v>0.27600753099999997</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>-70.670670670670603</v>
       </c>
       <c r="B706">
-        <v>0.254007873239527</v>
+        <v>0.271711549</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -6542,7 +6542,7 @@
         <v>-70.6006006006006</v>
       </c>
       <c r="B707">
-        <v>0.24993132882927299</v>
+        <v>0.26749987600000003</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -6550,7 +6550,7 @@
         <v>-70.530530530530498</v>
       </c>
       <c r="B708">
-        <v>0.24593876056305899</v>
+        <v>0.26337086100000001</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -6558,7 +6558,7 @@
         <v>-70.460460460460396</v>
       </c>
       <c r="B709">
-        <v>0.24202836436403399</v>
+        <v>0.25932287100000001</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -6566,7 +6566,7 @@
         <v>-70.390390390390394</v>
       </c>
       <c r="B710">
-        <v>0.23819836265808</v>
+        <v>0.25535428999999998</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -6574,7 +6574,7 @@
         <v>-70.320320320320306</v>
       </c>
       <c r="B711">
-        <v>0.23444700524939399</v>
+        <v>0.25146351900000002</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
         <v>-70.250250250250204</v>
       </c>
       <c r="B712">
-        <v>0.230772570059984</v>
+        <v>0.24764898199999999</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -6590,7 +6590,7 @@
         <v>-70.180180180180102</v>
       </c>
       <c r="B713">
-        <v>0.22717336374386701</v>
+        <v>0.24390912100000001</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>-70.110110110110099</v>
       </c>
       <c r="B714">
-        <v>0.223647722186124</v>
+        <v>0.24024239999999999</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
         <v>-70.040040040039997</v>
       </c>
       <c r="B715">
-        <v>0.22019401089634799</v>
+        <v>0.236647306</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>-69.969969969969895</v>
       </c>
       <c r="B716">
-        <v>0.21681062530537701</v>
+        <v>0.23312234900000001</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
         <v>-69.899899899899907</v>
       </c>
       <c r="B717">
-        <v>0.213495990973667</v>
+        <v>0.22966606000000001</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -6630,7 +6630,7 @@
         <v>-69.829829829829805</v>
       </c>
       <c r="B718">
-        <v>0.21024856371907399</v>
+        <v>0.22627699800000001</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>-69.759759759759703</v>
       </c>
       <c r="B719">
-        <v>0.20706682967132001</v>
+        <v>0.22295374200000001</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -6646,7 +6646,7 @@
         <v>-69.6896896896897</v>
       </c>
       <c r="B720">
-        <v>0.20394930525989799</v>
+        <v>0.219694897</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -6654,7 +6654,7 @@
         <v>-69.619619619619598</v>
       </c>
       <c r="B721">
-        <v>0.20089453714171501</v>
+        <v>0.216499093</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -6662,7 +6662,7 @@
         <v>-69.549549549549496</v>
       </c>
       <c r="B722">
-        <v>0.19790110207431599</v>
+        <v>0.21336498600000001</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -6670,7 +6670,7 @@
         <v>-69.479479479479494</v>
       </c>
       <c r="B723">
-        <v>0.194967606740132</v>
+        <v>0.21029125300000001</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -6678,7 +6678,7 @@
         <v>-69.409409409409406</v>
       </c>
       <c r="B724">
-        <v>0.192092687526766</v>
+        <v>0.20727659900000001</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
         <v>-69.339339339339304</v>
       </c>
       <c r="B725">
-        <v>0.18927501026799901</v>
+        <v>0.20431975399999999</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -6694,7 +6694,7 @@
         <v>-69.269269269269202</v>
       </c>
       <c r="B726">
-        <v>0.18651326994980999</v>
+        <v>0.20141946999999999</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -6702,7 +6702,7 @@
         <v>-69.199199199199199</v>
       </c>
       <c r="B727">
-        <v>0.18380619038540899</v>
+        <v>0.198574526</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
         <v>-69.129129129129097</v>
       </c>
       <c r="B728">
-        <v>0.181152523862946</v>
+        <v>0.19578372499999999</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -6718,7 +6718,7 @@
         <v>-69.059059059058995</v>
       </c>
       <c r="B729">
-        <v>0.178551050769296</v>
+        <v>0.193045894</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -6726,7 +6726,7 @@
         <v>-68.988988988988993</v>
       </c>
       <c r="B730">
-        <v>0.176000579193023</v>
+        <v>0.19035988500000001</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -6734,7 +6734,7 @@
         <v>-68.918918918918905</v>
       </c>
       <c r="B731">
-        <v>0.17349994450940301</v>
+        <v>0.18772457200000001</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -6742,7 +6742,7 @@
         <v>-68.848848848848803</v>
       </c>
       <c r="B732">
-        <v>0.171048008950137</v>
+        <v>0.18513885499999999</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -6750,7 +6750,7 @@
         <v>-68.778778778778701</v>
       </c>
       <c r="B733">
-        <v>0.16864366116014901</v>
+        <v>0.182601656</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -6758,7 +6758,7 @@
         <v>-68.708708708708699</v>
       </c>
       <c r="B734">
-        <v>0.16628581574370199</v>
+        <v>0.18011192000000001</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -6766,7 +6766,7 @@
         <v>-68.638638638638596</v>
       </c>
       <c r="B735">
-        <v>0.163973412801837</v>
+        <v>0.177668615</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -6774,7 +6774,7 @@
         <v>-68.568568568568494</v>
       </c>
       <c r="B736">
-        <v>0.16170541746297201</v>
+        <v>0.17527073200000001</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
         <v>-68.498498498498506</v>
       </c>
       <c r="B737">
-        <v>0.15948081940835601</v>
+        <v>0.172917284</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>-68.428428428428404</v>
       </c>
       <c r="B738">
-        <v>0.157298632393885</v>
+        <v>0.17060730499999999</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -6798,7 +6798,7 @@
         <v>-68.358358358358302</v>
       </c>
       <c r="B739">
-        <v>0.155157893769682</v>
+        <v>0.16833985100000001</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>-68.2882882882883</v>
       </c>
       <c r="B740">
-        <v>0.15305766399868501</v>
+        <v>0.16611399900000001</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>-68.218218218218198</v>
       </c>
       <c r="B741">
-        <v>0.150997026175375</v>
+        <v>0.16392884699999999</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -6822,7 +6822,7 @@
         <v>-68.148148148148096</v>
       </c>
       <c r="B742">
-        <v>0.14897508554568201</v>
+        <v>0.16178351399999999</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -6830,7 +6830,7 @@
         <v>-68.078078078078093</v>
       </c>
       <c r="B743">
-        <v>0.146990969028958</v>
+        <v>0.159677136</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
         <v>-68.008008008008005</v>
       </c>
       <c r="B744">
-        <v>0.145043824742877</v>
+        <v>0.15760887200000001</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
         <v>-67.937937937937903</v>
       </c>
       <c r="B745">
-        <v>0.14313282153196599</v>
+        <v>0.15557789899999999</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -6854,7 +6854,7 @@
         <v>-67.867867867867801</v>
       </c>
       <c r="B746">
-        <v>0.141257148500433</v>
+        <v>0.153583412</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>-67.797797797797799</v>
       </c>
       <c r="B747">
-        <v>0.139416014549886</v>
+        <v>0.15162462500000001</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -6870,7 +6870,7 @@
         <v>-67.727727727727697</v>
       </c>
       <c r="B748">
-        <v>0.137608647922421</v>
+        <v>0.14970077200000001</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
@@ -6878,7 +6878,7 @@
         <v>-67.657657657657595</v>
       </c>
       <c r="B749">
-        <v>0.13583429574956599</v>
+        <v>0.147811101</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -6886,7 +6886,7 @@
         <v>-67.587587587587606</v>
       </c>
       <c r="B750">
-        <v>0.134092223607442</v>
+        <v>0.14595488000000001</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -6894,7 +6894,7 @@
         <v>-67.517517517517504</v>
       </c>
       <c r="B751">
-        <v>0.132381715078492</v>
+        <v>0.144131394</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -6902,7 +6902,7 @@
         <v>-67.447447447447402</v>
       </c>
       <c r="B752">
-        <v>0.130702071320069</v>
+        <v>0.142339944</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -6910,7 +6910,7 @@
         <v>-67.3773773773773</v>
       </c>
       <c r="B753">
-        <v>0.129052610640118</v>
+        <v>0.14057984600000001</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>-67.307307307307298</v>
       </c>
       <c r="B754">
-        <v>0.12743266808017001</v>
+        <v>0.13885043499999999</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -6926,7 +6926,7 @@
         <v>-67.237237237237196</v>
       </c>
       <c r="B755">
-        <v>0.125841595005803</v>
+        <v>0.13715105699999999</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
         <v>-67.167167167167094</v>
       </c>
       <c r="B756">
-        <v>0.124278758704711</v>
+        <v>0.135481079</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -6942,7 +6942,7 @@
         <v>-67.097097097097105</v>
       </c>
       <c r="B757">
-        <v>0.12274354199248701</v>
+        <v>0.133839877</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,7 +6950,7 @@
         <v>-67.027027027027003</v>
       </c>
       <c r="B758">
-        <v>0.121235342826188</v>
+        <v>0.13222684600000001</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -6958,7 +6958,7 @@
         <v>-66.956956956956901</v>
       </c>
       <c r="B759">
-        <v>0.119753573925741</v>
+        <v>0.13064139299999999</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
         <v>-66.886886886886899</v>
       </c>
       <c r="B760">
-        <v>0.11829766240320801</v>
+        <v>0.12908293900000001</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -6974,7 +6974,7 @@
         <v>-66.816816816816797</v>
       </c>
       <c r="B761">
-        <v>0.116867049399932</v>
+        <v>0.12755092000000001</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
         <v>-66.746746746746695</v>
       </c>
       <c r="B762">
-        <v>0.115461189731544</v>
+        <v>0.12604478199999999</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -6990,7 +6990,7 @@
         <v>-66.676676676676607</v>
       </c>
       <c r="B763">
-        <v>0.11407955154079399</v>
+        <v>0.124563987</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -6998,7 +6998,7 @@
         <v>-66.606606606606604</v>
       </c>
       <c r="B764">
-        <v>0.112721615958192</v>
+        <v>0.123108008</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>-66.536536536536502</v>
       </c>
       <c r="B765">
-        <v>0.111386876770374</v>
+        <v>0.121676332</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -7014,7 +7014,7 @@
         <v>-66.4664664664664</v>
       </c>
       <c r="B766">
-        <v>0.11007484009613799</v>
+        <v>0.120268457</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>-66.396396396396398</v>
       </c>
       <c r="B767">
-        <v>0.108785024070085</v>
+        <v>0.11888389100000001</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -7030,7 +7030,7 @@
         <v>-66.326326326326296</v>
       </c>
       <c r="B768">
-        <v>0.107516958533749</v>
+        <v>0.117522155</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
@@ -7038,7 +7038,7 @@
         <v>-66.256256256256194</v>
       </c>
       <c r="B769">
-        <v>0.10627018473415099</v>
+        <v>0.116182783</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
@@ -7046,7 +7046,7 @@
         <v>-66.186186186186106</v>
       </c>
       <c r="B770">
-        <v>0.105044255029658</v>
+        <v>0.11486531699999999</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>-66.116116116116103</v>
       </c>
       <c r="B771">
-        <v>0.10383873260304299</v>
+        <v>0.11356931100000001</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -7062,7 +7062,7 @@
         <v>-66.046046046046001</v>
       </c>
       <c r="B772">
-        <v>0.10265319118163301</v>
+        <v>0.112294328</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -7070,7 +7070,7 @@
         <v>-65.975975975975899</v>
       </c>
       <c r="B773">
-        <v>0.101487214764431</v>
+        <v>0.111039943</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -7078,7 +7078,7 @@
         <v>-65.905905905905897</v>
       </c>
       <c r="B774">
-        <v>0.10034039735608601</v>
+        <v>0.10980574</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -7086,7 +7086,7 @@
         <v>-65.835835835835795</v>
       </c>
       <c r="B775">
-        <v>9.9212342707587997E-2</v>
+        <v>0.10859131299999999</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -7094,7 +7094,7 @@
         <v>-65.765765765765707</v>
       </c>
       <c r="B776">
-        <v>9.8102664063564701E-2</v>
+        <v>0.107396265</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -7102,7 +7102,7 @@
         <v>-65.695695695695704</v>
       </c>
       <c r="B777">
-        <v>9.7010983916046498E-2</v>
+        <v>0.106220207</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
         <v>-65.625625625625602</v>
       </c>
       <c r="B778">
-        <v>9.5936933764573906E-2</v>
+        <v>0.105062762</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>-65.5555555555555</v>
       </c>
       <c r="B779">
-        <v>9.4880153882513807E-2</v>
+        <v>0.103923558</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -7126,7 +7126,7 @@
         <v>-65.485485485485398</v>
       </c>
       <c r="B780">
-        <v>9.3840293089455296E-2</v>
+        <v>0.10280223500000001</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -7134,7 +7134,7 @@
         <v>-65.415415415415396</v>
       </c>
       <c r="B781">
-        <v>9.2817008529551104E-2</v>
+        <v>0.101698438</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -7142,7 +7142,7 @@
         <v>-65.345345345345294</v>
       </c>
       <c r="B782">
-        <v>9.1809965455675602E-2</v>
+        <v>0.100611824</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -7150,7 +7150,7 @@
         <v>-65.275275275275206</v>
       </c>
       <c r="B783">
-        <v>9.0818837019266394E-2</v>
+        <v>9.9542053000000005E-2</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -7158,7 +7158,7 @@
         <v>-65.205205205205203</v>
       </c>
       <c r="B784">
-        <v>8.9843304065720497E-2</v>
+        <v>9.8488797000000003E-2</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -7166,7 +7166,7 @@
         <v>-65.135135135135101</v>
       </c>
       <c r="B785">
-        <v>8.8883054935214006E-2</v>
+        <v>9.7451733999999998E-2</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -7174,7 +7174,7 @@
         <v>-65.065065065064999</v>
       </c>
       <c r="B786">
-        <v>8.7937785268818902E-2</v>
+        <v>9.6430548000000005E-2</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
         <v>-64.994994994994997</v>
       </c>
       <c r="B787">
-        <v>8.7007197819787399E-2</v>
+        <v>9.5424931000000004E-2</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>-64.924924924924895</v>
       </c>
       <c r="B788">
-        <v>8.6091002269881103E-2</v>
+        <v>9.4434584000000002E-2</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -7198,7 +7198,7 @@
         <v>-64.854854854854807</v>
       </c>
       <c r="B789">
-        <v>8.5188915050618902E-2</v>
+        <v>9.3459211E-2</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
@@ -7206,7 +7206,7 @@
         <v>-64.784784784784705</v>
       </c>
       <c r="B790">
-        <v>8.4300659169320794E-2</v>
+        <v>9.2498526999999997E-2</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
@@ -7214,7 +7214,7 @@
         <v>-64.714714714714702</v>
       </c>
       <c r="B791">
-        <v>8.3425964039830394E-2</v>
+        <v>9.1552248000000003E-2</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
@@ -7222,7 +7222,7 @@
         <v>-64.6446446446446</v>
       </c>
       <c r="B792">
-        <v>8.2564565317793506E-2</v>
+        <v>9.0620101999999994E-2</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>-64.574574574574498</v>
       </c>
       <c r="B793">
-        <v>8.1716204740378606E-2</v>
+        <v>8.9701819000000002E-2</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
@@ -7238,7 +7238,7 @@
         <v>-64.504504504504496</v>
       </c>
       <c r="B794">
-        <v>8.0880629970324899E-2</v>
+        <v>8.8797136999999998E-2</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -7246,7 +7246,7 @@
         <v>-64.434434434434394</v>
       </c>
       <c r="B795">
-        <v>8.0057594444203906E-2</v>
+        <v>8.7905800000000006E-2</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>-64.364364364364306</v>
       </c>
       <c r="B796">
-        <v>7.9246857224785902E-2</v>
+        <v>8.7027556000000006E-2</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>-64.294294294294303</v>
       </c>
       <c r="B797">
-        <v>7.8448182857401905E-2</v>
+        <v>8.6162159000000002E-2</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
@@ -7270,7 +7270,7 @@
         <v>-64.224224224224201</v>
       </c>
       <c r="B798">
-        <v>7.7661341230196995E-2</v>
+        <v>8.5309370999999995E-2</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
@@ -7278,7 +7278,7 @@
         <v>-64.154154154154099</v>
       </c>
       <c r="B799">
-        <v>7.6886107438169302E-2</v>
+        <v>8.4468955999999998E-2</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
@@ -7286,7 +7286,7 @@
         <v>-64.084084084083997</v>
       </c>
       <c r="B800">
-        <v>7.6122261650894502E-2</v>
+        <v>8.3640684000000007E-2</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -7294,7 +7294,7 @@
         <v>-64.014014014013995</v>
       </c>
       <c r="B801">
-        <v>7.5369588983837402E-2</v>
+        <v>8.2824332000000001E-2</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -7302,7 +7302,7 @@
         <v>-63.9439439439439</v>
       </c>
       <c r="B802">
-        <v>7.4627879373151407E-2</v>
+        <v>8.2019678999999998E-2</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -7310,7 +7310,7 @@
         <v>-63.873873873873798</v>
       </c>
       <c r="B803">
-        <v>7.3896927453873398E-2</v>
+        <v>8.1226511000000001E-2</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
         <v>-63.803803803803802</v>
       </c>
       <c r="B804">
-        <v>7.3176532441420694E-2</v>
+        <v>8.0444616999999996E-2</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>-63.7337337337337</v>
       </c>
       <c r="B805">
-        <v>7.2466498016299105E-2</v>
+        <v>7.9673791999999993E-2</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
@@ -7334,7 +7334,7 @@
         <v>-63.663663663663598</v>
       </c>
       <c r="B806">
-        <v>7.1766632211936396E-2</v>
+        <v>7.8913835000000002E-2</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
         <v>-63.593593593593503</v>
       </c>
       <c r="B807">
-        <v>7.1076747305551302E-2</v>
+        <v>7.8164549999999999E-2</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
         <v>-63.523523523523501</v>
       </c>
       <c r="B808">
-        <v>7.0396659711978504E-2</v>
+        <v>7.7425742000000006E-2</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -7358,7 +7358,7 @@
         <v>-63.453453453453399</v>
       </c>
       <c r="B809">
-        <v>6.9726189880365094E-2</v>
+        <v>7.6697223999999994E-2</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
@@ -7366,7 +7366,7 @@
         <v>-63.383383383383297</v>
       </c>
       <c r="B810">
-        <v>6.9065162193659893E-2</v>
+        <v>7.5978812000000007E-2</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
         <v>-63.313313313313301</v>
       </c>
       <c r="B811">
-        <v>6.8413404870818595E-2</v>
+        <v>7.5270325999999999E-2</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
@@ -7382,7 +7382,7 @@
         <v>-63.243243243243199</v>
       </c>
       <c r="B812">
-        <v>6.7770749871646996E-2</v>
+        <v>7.4571586999999995E-2</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>-63.173173173173097</v>
       </c>
       <c r="B813">
-        <v>6.7137032804212599E-2</v>
+        <v>7.3882424000000002E-2</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
@@ -7398,7 +7398,7 @@
         <v>-63.103103103103102</v>
       </c>
       <c r="B814">
-        <v>6.6512092834748598E-2</v>
+        <v>7.3202667999999999E-2</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>-63.033033033033</v>
       </c>
       <c r="B815">
-        <v>6.5895772599983804E-2</v>
+        <v>7.2532152000000003E-2</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
@@ -7414,7 +7414,7 @@
         <v>-62.962962962962898</v>
       </c>
       <c r="B816">
-        <v>6.5287918121829297E-2</v>
+        <v>7.1870715000000002E-2</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
@@ -7422,7 +7422,7 @@
         <v>-62.892892892892803</v>
       </c>
       <c r="B817">
-        <v>6.4688378724355303E-2</v>
+        <v>7.1218196999999997E-2</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
@@ -7430,7 +7430,7 @@
         <v>-62.822822822822801</v>
       </c>
       <c r="B818">
-        <v>6.4097006952995597E-2</v>
+        <v>7.0574444E-2</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
@@ -7438,7 +7438,7 @@
         <v>-62.752752752752698</v>
       </c>
       <c r="B819">
-        <v>6.3513658495915504E-2</v>
+        <v>6.9939302999999994E-2</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
@@ -7446,7 +7446,7 @@
         <v>-62.682682682682596</v>
       </c>
       <c r="B820">
-        <v>6.2938192107483207E-2</v>
+        <v>6.9312625000000003E-2</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
@@ -7454,7 +7454,7 @@
         <v>-62.612612612612601</v>
       </c>
       <c r="B821">
-        <v>6.2370469533785999E-2</v>
+        <v>6.8694264000000005E-2</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
@@ -7462,7 +7462,7 @@
         <v>-62.542542542542499</v>
       </c>
       <c r="B822">
-        <v>6.1810355440131998E-2</v>
+        <v>6.8084077000000007E-2</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
@@ -7470,7 +7470,7 @@
         <v>-62.472472472472397</v>
       </c>
       <c r="B823">
-        <v>6.1257717340485102E-2</v>
+        <v>6.7481924999999998E-2</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
@@ -7478,7 +7478,7 @@
         <v>-62.402402402402402</v>
       </c>
       <c r="B824">
-        <v>6.07124255287739E-2</v>
+        <v>6.6887668999999997E-2</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
@@ -7486,7 +7486,7 @@
         <v>-62.3323323323323</v>
       </c>
       <c r="B825">
-        <v>6.0174353012026997E-2</v>
+        <v>6.6301177000000003E-2</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>-62.262262262262198</v>
       </c>
       <c r="B826">
-        <v>5.9643375445279E-2</v>
+        <v>6.5722315000000003E-2</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
@@ -7502,7 +7502,7 @@
         <v>-62.192192192192103</v>
       </c>
       <c r="B827">
-        <v>5.9119371068200699E-2</v>
+        <v>6.5150955999999996E-2</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
@@ -7510,7 +7510,7 @@
         <v>-62.1221221221221</v>
       </c>
       <c r="B828">
-        <v>5.8602220643402897E-2</v>
+        <v>6.4586973000000006E-2</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>-62.052052052051998</v>
       </c>
       <c r="B829">
-        <v>5.8091807396367601E-2</v>
+        <v>6.4030243000000001E-2</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
         <v>-61.981981981981903</v>
       </c>
       <c r="B830">
-        <v>5.7588016956961197E-2</v>
+        <v>6.3480644000000003E-2</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>-61.911911911911901</v>
       </c>
       <c r="B831">
-        <v>5.7090737302484297E-2</v>
+        <v>6.2938057000000006E-2</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
@@ -7542,7 +7542,7 @@
         <v>-61.841841841841799</v>
       </c>
       <c r="B832">
-        <v>5.6599858702215997E-2</v>
+        <v>6.2402367E-2</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>-61.771771771771697</v>
       </c>
       <c r="B833">
-        <v>5.6115273663410403E-2</v>
+        <v>6.1873457999999999E-2</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>-61.701701701701701</v>
       </c>
       <c r="B834">
-        <v>5.5636876878704201E-2</v>
+        <v>6.1351219999999998E-2</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
@@ -7566,7 +7566,7 @@
         <v>-61.631631631631599</v>
       </c>
       <c r="B835">
-        <v>5.5164565174896298E-2</v>
+        <v>6.0835542999999999E-2</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>-61.561561561561497</v>
       </c>
       <c r="B836">
-        <v>5.4698237463061197E-2</v>
+        <v>6.0326319000000003E-2</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
@@ -7582,7 +7582,7 @@
         <v>-61.491491491491402</v>
       </c>
       <c r="B837">
-        <v>5.42377946899587E-2</v>
+        <v>5.9823442999999997E-2</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
@@ -7590,7 +7590,7 @@
         <v>-61.4214214214214</v>
       </c>
       <c r="B838">
-        <v>5.3783139790702997E-2</v>
+        <v>5.9326812E-2</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
@@ -7598,7 +7598,7 @@
         <v>-61.351351351351298</v>
       </c>
       <c r="B839">
-        <v>5.3334177642657403E-2</v>
+        <v>5.8836325000000002E-2</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
@@ -7606,7 +7606,7 @@
         <v>-61.281281281281203</v>
       </c>
       <c r="B840">
-        <v>5.2890815020519497E-2</v>
+        <v>5.8351882000000001E-2</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>-61.2112112112112</v>
       </c>
       <c r="B841">
-        <v>5.2452960552563703E-2</v>
+        <v>5.7873386999999998E-2</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
@@ -7622,7 +7622,7 @@
         <v>-61.141141141141098</v>
       </c>
       <c r="B842">
-        <v>5.2020524678009598E-2</v>
+        <v>5.7400743999999997E-2</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
@@ -7630,7 +7630,7 @@
         <v>-61.071071071071003</v>
       </c>
       <c r="B843">
-        <v>5.1593419605483901E-2</v>
+        <v>5.6933860000000003E-2</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
@@ -7638,7 +7638,7 @@
         <v>-61.001001001001001</v>
       </c>
       <c r="B844">
-        <v>5.1171559272546699E-2</v>
+        <v>5.6472643000000003E-2</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>-60.930930930930899</v>
       </c>
       <c r="B845">
-        <v>5.0754859306251301E-2</v>
+        <v>5.6017003000000003E-2</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
@@ -7654,7 +7654,7 @@
         <v>-60.860860860860797</v>
       </c>
       <c r="B846">
-        <v>5.0343236984710597E-2</v>
+        <v>5.5566851E-2</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
@@ -7662,7 +7662,7 @@
         <v>-60.790790790790702</v>
       </c>
       <c r="B847">
-        <v>4.9936611199640601E-2</v>
+        <v>5.5122101999999999E-2</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
         <v>-60.720720720720699</v>
       </c>
       <c r="B848">
-        <v>4.9534902419854601E-2</v>
+        <v>5.4682671000000002E-2</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
@@ -7678,7 +7678,7 @@
         <v>-60.650650650650597</v>
       </c>
       <c r="B849">
-        <v>4.9138032655683297E-2</v>
+        <v>5.4248473999999998E-2</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
@@ -7686,7 +7686,7 @@
         <v>-60.580580580580502</v>
       </c>
       <c r="B850">
-        <v>4.8745925424292402E-2</v>
+        <v>5.3819430000000001E-2</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
@@ -7694,7 +7694,7 @@
         <v>-60.5105105105105</v>
       </c>
       <c r="B851">
-        <v>4.8358505715876299E-2</v>
+        <v>5.3395458E-2</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
@@ -7702,7 +7702,7 @@
         <v>-60.440440440440398</v>
       </c>
       <c r="B852">
-        <v>4.7975699960701002E-2</v>
+        <v>5.2976480999999999E-2</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
@@ -7710,7 +7710,7 @@
         <v>-60.370370370370303</v>
       </c>
       <c r="B853">
-        <v>4.7597435996975003E-2</v>
+        <v>5.2562419999999999E-2</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
@@ -7718,7 +7718,7 @@
         <v>-60.3003003003003</v>
       </c>
       <c r="B854">
-        <v>4.7223643039524497E-2</v>
+        <v>5.2153201000000003E-2</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
@@ -7726,7 +7726,7 @@
         <v>-60.230230230230198</v>
       </c>
       <c r="B855">
-        <v>4.6854251649251603E-2</v>
+        <v>5.1748748999999997E-2</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
@@ -7734,7 +7734,7 @@
         <v>-60.160160160160103</v>
       </c>
       <c r="B856">
-        <v>4.6489193703352798E-2</v>
+        <v>5.1348992000000003E-2</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
@@ -7742,7 +7742,7 @@
         <v>-60.090090090090101</v>
       </c>
       <c r="B857">
-        <v>4.6128402366279499E-2</v>
+        <v>5.0953856999999998E-2</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
@@ -7750,7 +7750,7 @@
         <v>-60.020020020019999</v>
       </c>
       <c r="B858">
-        <v>4.5771812061417297E-2</v>
+        <v>5.0563274999999998E-2</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
@@ -7758,7 +7758,7 @@
         <v>-59.949949949949897</v>
       </c>
       <c r="B859">
-        <v>4.5419358443468102E-2</v>
+        <v>5.0177177000000003E-2</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
         <v>-59.879879879879802</v>
       </c>
       <c r="B860">
-        <v>4.5070978371512103E-2</v>
+        <v>4.9795495000000002E-2</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
@@ -7774,7 +7774,7 @@
         <v>-59.809809809809799</v>
       </c>
       <c r="B861">
-        <v>4.4726609882735101E-2</v>
+        <v>4.9418162000000002E-2</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
@@ -7782,7 +7782,7 @@
         <v>-59.739739739739697</v>
       </c>
       <c r="B862">
-        <v>4.4386192166800301E-2</v>
+        <v>4.9045115E-2</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
@@ -7790,7 +7790,7 @@
         <v>-59.669669669669602</v>
       </c>
       <c r="B863">
-        <v>4.40496655408485E-2</v>
+        <v>4.8676287999999998E-2</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
@@ -7798,7 +7798,7 @@
         <v>-59.5995995995996</v>
       </c>
       <c r="B864">
-        <v>4.3716971425110197E-2</v>
+        <v>4.831162E-2</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
@@ -7806,7 +7806,7 @@
         <v>-59.529529529529498</v>
       </c>
       <c r="B865">
-        <v>4.3388052319112198E-2</v>
+        <v>4.7951048000000003E-2</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
@@ -7814,7 +7814,7 @@
         <v>-59.459459459459403</v>
       </c>
       <c r="B866">
-        <v>4.3062851778462703E-2</v>
+        <v>4.7594511999999999E-2</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
@@ -7822,7 +7822,7 @@
         <v>-59.3893893893894</v>
       </c>
       <c r="B867">
-        <v>4.27413143922016E-2</v>
+        <v>4.7241951999999997E-2</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
@@ -7830,7 +7830,7 @@
         <v>-59.319319319319298</v>
       </c>
       <c r="B868">
-        <v>4.2423385760696999E-2</v>
+        <v>4.6893310000000001E-2</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
@@ -7838,7 +7838,7 @@
         <v>-59.249249249249203</v>
       </c>
       <c r="B869">
-        <v>4.2109012474078097E-2</v>
+        <v>4.6548528999999998E-2</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -7846,7 +7846,7 @@
         <v>-59.179179179179101</v>
       </c>
       <c r="B870">
-        <v>4.1798142091185597E-2</v>
+        <v>4.6207552999999998E-2</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
@@ -7854,7 +7854,7 @@
         <v>-59.109109109109099</v>
       </c>
       <c r="B871">
-        <v>4.1490723119029703E-2</v>
+        <v>4.5870326000000003E-2</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
@@ -7862,7 +7862,7 @@
         <v>-59.039039039038997</v>
       </c>
       <c r="B872">
-        <v>4.1186704992739798E-2</v>
+        <v>4.5536792999999999E-2</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
@@ -7870,7 +7870,7 @@
         <v>-58.968968968968902</v>
       </c>
       <c r="B873">
-        <v>4.0886038055994098E-2</v>
+        <v>4.5206903E-2</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
@@ -7878,7 +7878,7 @@
         <v>-58.898898898898899</v>
       </c>
       <c r="B874">
-        <v>4.0588673541915803E-2</v>
+        <v>4.4880600999999999E-2</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -7886,7 +7886,7 @@
         <v>-58.828828828828797</v>
       </c>
       <c r="B875">
-        <v>4.0294563554424803E-2</v>
+        <v>4.4557838000000002E-2</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
@@ -7894,7 +7894,7 @@
         <v>-58.758758758758702</v>
       </c>
       <c r="B876">
-        <v>4.0003661050030503E-2</v>
+        <v>4.4238561000000003E-2</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
@@ -7902,7 +7902,7 @@
         <v>-58.6886886886887</v>
       </c>
       <c r="B877">
-        <v>3.9715919820057899E-2</v>
+        <v>4.3922721999999997E-2</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
@@ -7910,7 +7910,7 @@
         <v>-58.618618618618598</v>
       </c>
       <c r="B878">
-        <v>3.9431294473291599E-2</v>
+        <v>4.3610270999999999E-2</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
@@ -7918,7 +7918,7 @@
         <v>-58.548548548548503</v>
       </c>
       <c r="B879">
-        <v>3.9149740419029799E-2</v>
+        <v>4.3301161999999997E-2</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
@@ -7926,7 +7926,7 @@
         <v>-58.478478478478401</v>
       </c>
       <c r="B880">
-        <v>3.8871213850536303E-2</v>
+        <v>4.2995344999999997E-2</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>-58.408408408408398</v>
       </c>
       <c r="B881">
-        <v>3.8595671728880399E-2</v>
+        <v>4.2692776000000002E-2</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -7942,7 +7942,7 @@
         <v>-58.338338338338303</v>
       </c>
       <c r="B882">
-        <v>3.8323071767154701E-2</v>
+        <v>4.2393409E-2</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
@@ -7950,7 +7950,7 @@
         <v>-58.268268268268201</v>
       </c>
       <c r="B883">
-        <v>3.8053372415060897E-2</v>
+        <v>4.2097199000000002E-2</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
@@ -7958,7 +7958,7 @@
         <v>-58.198198198198199</v>
       </c>
       <c r="B884">
-        <v>3.7786532843854498E-2</v>
+        <v>4.1804102000000003E-2</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -7966,7 +7966,7 @@
         <v>-58.128128128128097</v>
       </c>
       <c r="B885">
-        <v>3.7522512931638698E-2</v>
+        <v>4.1514073999999998E-2</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
@@ -7974,7 +7974,7 @@
         <v>-58.058058058058002</v>
       </c>
       <c r="B886">
-        <v>3.7261273248998597E-2</v>
+        <v>4.1227074000000002E-2</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
@@ -7982,7 +7982,7 @@
         <v>-57.987987987987999</v>
       </c>
       <c r="B887">
-        <v>3.7002775044967101E-2</v>
+        <v>4.0943060000000003E-2</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
@@ -7990,7 +7990,7 @@
         <v>-57.917917917917897</v>
       </c>
       <c r="B888">
-        <v>3.6746980233314401E-2</v>
+        <v>4.0661990000000002E-2</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
@@ -7998,7 +7998,7 @@
         <v>-57.847847847847802</v>
       </c>
       <c r="B889">
-        <v>3.6493851379151801E-2</v>
+        <v>4.0383823999999999E-2</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
@@ -8006,7 +8006,7 @@
         <v>-57.7777777777777</v>
       </c>
       <c r="B890">
-        <v>3.6243351685843098E-2</v>
+        <v>4.0108523E-2</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
@@ -8014,7 +8014,7 @@
         <v>-57.707707707707698</v>
       </c>
       <c r="B891">
-        <v>3.5995444982214499E-2</v>
+        <v>3.9836046999999999E-2</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>-57.637637637637603</v>
       </c>
       <c r="B892">
-        <v>3.5750095710056301E-2</v>
+        <v>3.9566358000000003E-2</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
@@ -8030,7 +8030,7 @@
         <v>-57.567567567567501</v>
       </c>
       <c r="B893">
-        <v>3.5507268911909397E-2</v>
+        <v>3.9299419000000002E-2</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
@@ -8038,7 +8038,7 @@
         <v>-57.497497497497498</v>
       </c>
       <c r="B894">
-        <v>3.52669302191276E-2</v>
+        <v>3.9035192000000003E-2</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
@@ -8046,7 +8046,7 @@
         <v>-57.427427427427403</v>
       </c>
       <c r="B895">
-        <v>3.5029045840210701E-2</v>
+        <v>3.8773640999999998E-2</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
@@ -8054,7 +8054,7 @@
         <v>-57.357357357357301</v>
       </c>
       <c r="B896">
-        <v>3.4793582549401202E-2</v>
+        <v>3.8514729999999997E-2</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
@@ -8062,7 +8062,7 @@
         <v>-57.287287287287299</v>
       </c>
       <c r="B897">
-        <v>3.4560507675536298E-2</v>
+        <v>3.8258423999999999E-2</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
         <v>-57.217217217217197</v>
       </c>
       <c r="B898">
-        <v>3.4329789091151898E-2</v>
+        <v>3.8004687000000002E-2</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
@@ -8078,7 +8078,7 @@
         <v>-57.147147147147102</v>
       </c>
       <c r="B899">
-        <v>3.4101395201828998E-2</v>
+        <v>3.7753487000000002E-2</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
@@ -8086,7 +8086,7 @@
         <v>-57.077077077077</v>
       </c>
       <c r="B900">
-        <v>3.3875294935778899E-2</v>
+        <v>3.7504788999999997E-2</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
@@ -8094,7 +8094,7 @@
         <v>-57.007007007006997</v>
       </c>
       <c r="B901">
-        <v>3.36514577336606E-2</v>
+        <v>3.7258560000000003E-2</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -8102,7 +8102,7 @@
         <v>-56.936936936936902</v>
       </c>
       <c r="B902">
-        <v>3.3429853538623398E-2</v>
+        <v>3.7014768000000003E-2</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
         <v>-56.8668668668668</v>
       </c>
       <c r="B903">
-        <v>3.3210452786571101E-2</v>
+        <v>3.6773381000000001E-2</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
@@ -8118,7 +8118,7 @@
         <v>-56.796796796796798</v>
       </c>
       <c r="B904">
-        <v>3.2993226396641297E-2</v>
+        <v>3.6534366999999998E-2</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
@@ -8126,7 +8126,7 @@
         <v>-56.726726726726703</v>
       </c>
       <c r="B905">
-        <v>3.2778145761894202E-2</v>
+        <v>3.6297695999999997E-2</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
@@ -8134,7 +8134,7 @@
         <v>-56.656656656656601</v>
       </c>
       <c r="B906">
-        <v>3.2565182740206602E-2</v>
+        <v>3.6063336000000001E-2</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
@@ -8142,7 +8142,7 @@
         <v>-56.586586586586598</v>
       </c>
       <c r="B907">
-        <v>3.2354309645365197E-2</v>
+        <v>3.5831258999999997E-2</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
@@ -8150,7 +8150,7 @@
         <v>-56.516516516516504</v>
       </c>
       <c r="B908">
-        <v>3.2145499238355399E-2</v>
+        <v>3.5601435000000001E-2</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
         <v>-56.446446446446402</v>
       </c>
       <c r="B909">
-        <v>3.1938724718839601E-2</v>
+        <v>3.5373834E-2</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
@@ -8166,7 +8166,7 @@
         <v>-56.3763763763763</v>
       </c>
       <c r="B910">
-        <v>3.1733959716821199E-2</v>
+        <v>3.5148428000000002E-2</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
@@ -8174,7 +8174,7 @@
         <v>-56.306306306306297</v>
       </c>
       <c r="B911">
-        <v>3.1531178284490001E-2</v>
+        <v>3.4925189000000002E-2</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
@@ -8182,7 +8182,7 @@
         <v>-56.236236236236202</v>
       </c>
       <c r="B912">
-        <v>3.1330354888243303E-2</v>
+        <v>3.4704089E-2</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
@@ -8190,7 +8190,7 @@
         <v>-56.1661661661661</v>
       </c>
       <c r="B913">
-        <v>3.1131464400880202E-2</v>
+        <v>3.4485101999999997E-2</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>-56.096096096096097</v>
       </c>
       <c r="B914">
-        <v>3.0934482093963999E-2</v>
+        <v>3.4268199999999999E-2</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
@@ -8206,7 +8206,7 @@
         <v>-56.026026026026003</v>
       </c>
       <c r="B915">
-        <v>3.07393836303478E-2</v>
+        <v>3.4053356999999999E-2</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
         <v>-55.955955955955901</v>
       </c>
       <c r="B916">
-        <v>3.05461450568617E-2</v>
+        <v>3.3840546999999999E-2</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
@@ -8222,7 +8222,7 @@
         <v>-55.885885885885799</v>
       </c>
       <c r="B917">
-        <v>3.0354742797155401E-2</v>
+        <v>3.3629744000000003E-2</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
@@ -8230,7 +8230,7 @@
         <v>-55.815815815815803</v>
       </c>
       <c r="B918">
-        <v>3.0165153644693601E-2</v>
+        <v>3.3420923999999998E-2</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
@@ -8238,7 +8238,7 @@
         <v>-55.745745745745701</v>
       </c>
       <c r="B919">
-        <v>2.9977354755900801E-2</v>
+        <v>3.3214061000000003E-2</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
@@ -8246,7 +8246,7 @@
         <v>-55.675675675675599</v>
       </c>
       <c r="B920">
-        <v>2.9791323643450801E-2</v>
+        <v>3.3009131999999997E-2</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
@@ -8254,7 +8254,7 @@
         <v>-55.605605605605597</v>
       </c>
       <c r="B921">
-        <v>2.9607038169699201E-2</v>
+        <v>3.2806111999999998E-2</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
@@ -8262,7 +8262,7 @@
         <v>-55.535535535535502</v>
       </c>
       <c r="B922">
-        <v>2.9424476540253899E-2</v>
+        <v>3.2604977E-2</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
@@ -8270,7 +8270,7 @@
         <v>-55.4654654654654</v>
       </c>
       <c r="B923">
-        <v>2.92436172976808E-2</v>
+        <v>3.2405704E-2</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
@@ -8278,7 +8278,7 @@
         <v>-55.395395395395397</v>
       </c>
       <c r="B924">
-        <v>2.9064439315342298E-2</v>
+        <v>3.2208270999999997E-2</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>-55.325325325325302</v>
       </c>
       <c r="B925">
-        <v>2.8886921791364501E-2</v>
+        <v>3.2012655000000001E-2</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
@@ -8294,7 +8294,7 @@
         <v>-55.2552552552552</v>
       </c>
       <c r="B926">
-        <v>2.87110442427304E-2</v>
+        <v>3.1818832999999998E-2</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>-55.185185185185098</v>
       </c>
       <c r="B927">
-        <v>2.8536786499496598E-2</v>
+        <v>3.1626783999999998E-2</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
@@ -8310,7 +8310,7 @@
         <v>-55.115115115115103</v>
       </c>
       <c r="B928">
-        <v>2.8364128699129802E-2</v>
+        <v>3.1436486999999999E-2</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
@@ -8318,7 +8318,7 @@
         <v>-55.045045045045001</v>
       </c>
       <c r="B929">
-        <v>2.8193051280961098E-2</v>
+        <v>3.1247918999999999E-2</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -8326,7 +8326,7 @@
         <v>-54.974974974974899</v>
       </c>
       <c r="B930">
-        <v>2.8023534980754501E-2</v>
+        <v>3.1061060000000001E-2</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
@@ -8334,7 +8334,7 @@
         <v>-54.904904904904903</v>
       </c>
       <c r="B931">
-        <v>2.78555608253882E-2</v>
+        <v>3.0875889E-2</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
@@ -8342,7 +8342,7 @@
         <v>-54.834834834834801</v>
       </c>
       <c r="B932">
-        <v>2.7689110127644901E-2</v>
+        <v>3.0692385999999999E-2</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
@@ -8350,7 +8350,7 @@
         <v>-54.764764764764699</v>
       </c>
       <c r="B933">
-        <v>2.75241644811089E-2</v>
+        <v>3.0510532E-2</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
@@ -8358,7 +8358,7 @@
         <v>-54.694694694694697</v>
       </c>
       <c r="B934">
-        <v>2.7360705755168E-2</v>
+        <v>3.0330306000000001E-2</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -8366,7 +8366,7 @@
         <v>-54.624624624624602</v>
       </c>
       <c r="B935">
-        <v>2.7198716090117599E-2</v>
+        <v>3.0151688999999999E-2</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -8374,7 +8374,7 @@
         <v>-54.5545545545545</v>
       </c>
       <c r="B936">
-        <v>2.70381778923642E-2</v>
+        <v>2.9974661E-2</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
@@ -8382,7 +8382,7 @@
         <v>-54.484484484484398</v>
       </c>
       <c r="B937">
-        <v>2.6879073829726201E-2</v>
+        <v>2.9799204999999999E-2</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
@@ -8390,7 +8390,7 @@
         <v>-54.414414414414402</v>
       </c>
       <c r="B938">
-        <v>2.6721386826830999E-2</v>
+        <v>2.9625301E-2</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
         <v>-54.3443443443443</v>
       </c>
       <c r="B939">
-        <v>2.65651000606037E-2</v>
+        <v>2.9452932000000001E-2</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
@@ -8406,7 +8406,7 @@
         <v>-54.274274274274198</v>
       </c>
       <c r="B940">
-        <v>2.6410196955848099E-2</v>
+        <v>2.9282078E-2</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
@@ -8414,7 +8414,7 @@
         <v>-54.204204204204203</v>
       </c>
       <c r="B941">
-        <v>2.62566611809157E-2</v>
+        <v>2.9112723E-2</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -8422,7 +8422,7 @@
         <v>-54.134134134134101</v>
       </c>
       <c r="B942">
-        <v>2.6104476643462101E-2</v>
+        <v>2.8944849000000002E-2</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
         <v>-54.064064064063999</v>
       </c>
       <c r="B943">
-        <v>2.5953627486288301E-2</v>
+        <v>2.8778438999999999E-2</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
@@ -8438,7 +8438,7 @@
         <v>-53.993993993994003</v>
       </c>
       <c r="B944">
-        <v>2.5804098083264702E-2</v>
+        <v>2.8613474999999999E-2</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
@@ -8446,7 +8446,7 @@
         <v>-53.923923923923901</v>
       </c>
       <c r="B945">
-        <v>2.5655873035337E-2</v>
+        <v>2.8449940999999999E-2</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
@@ -8454,7 +8454,7 @@
         <v>-53.853853853853799</v>
       </c>
       <c r="B946">
-        <v>2.5508937166610401E-2</v>
+        <v>2.8287820000000002E-2</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
@@ -8462,7 +8462,7 @@
         <v>-53.783783783783697</v>
       </c>
       <c r="B947">
-        <v>2.53632755205127E-2</v>
+        <v>2.8127097E-2</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
@@ -8470,7 +8470,7 @@
         <v>-53.713713713713702</v>
       </c>
       <c r="B948">
-        <v>2.5218873356031901E-2</v>
+        <v>2.7967755E-2</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
@@ -8478,7 +8478,7 @@
         <v>-53.6436436436436</v>
       </c>
       <c r="B949">
-        <v>2.50757161440292E-2</v>
+        <v>2.7809778E-2</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -8486,7 +8486,7 @@
         <v>-53.573573573573498</v>
       </c>
       <c r="B950">
-        <v>2.4933789563624E-2</v>
+        <v>2.7653150000000001E-2</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
@@ -8494,7 +8494,7 @@
         <v>-53.503503503503502</v>
       </c>
       <c r="B951">
-        <v>2.4793079498649201E-2</v>
+        <v>2.7497857000000001E-2</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
@@ -8502,7 +8502,7 @@
         <v>-53.4334334334334</v>
       </c>
       <c r="B952">
-        <v>2.46535720341776E-2</v>
+        <v>2.7343882999999999E-2</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
@@ -8510,7 +8510,7 @@
         <v>-53.363363363363298</v>
       </c>
       <c r="B953">
-        <v>2.4515253453113901E-2</v>
+        <v>2.7191212999999999E-2</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
@@ -8518,7 +8518,7 @@
         <v>-53.293293293293303</v>
       </c>
       <c r="B954">
-        <v>2.43781102328554E-2</v>
+        <v>2.7039832999999999E-2</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
@@ -8526,7 +8526,7 @@
         <v>-53.223223223223201</v>
       </c>
       <c r="B955">
-        <v>2.4242129042015299E-2</v>
+        <v>2.6889726999999999E-2</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
@@ -8534,7 +8534,7 @@
         <v>-53.153153153153099</v>
       </c>
       <c r="B956">
-        <v>2.4107296737211799E-2</v>
+        <v>2.6740883E-2</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
@@ -8542,7 +8542,7 @@
         <v>-53.083083083082997</v>
       </c>
       <c r="B957">
-        <v>2.3973600359917101E-2</v>
+        <v>2.6593283999999998E-2</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
@@ -8550,7 +8550,7 @@
         <v>-53.013013013013001</v>
       </c>
       <c r="B958">
-        <v>2.3841027133368799E-2</v>
+        <v>2.6446918999999999E-2</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
@@ -8558,7 +8558,7 @@
         <v>-52.942942942942899</v>
       </c>
       <c r="B959">
-        <v>2.3709564459540099E-2</v>
+        <v>2.6301772000000001E-2</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
@@ -8566,7 +8566,7 @@
         <v>-52.872872872872797</v>
       </c>
       <c r="B960">
-        <v>2.3579199916167901E-2</v>
+        <v>2.615783E-2</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
@@ -8574,7 +8574,7 @@
         <v>-52.802802802802802</v>
       </c>
       <c r="B961">
-        <v>2.34499212538384E-2</v>
+        <v>2.6015080999999999E-2</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
@@ -8582,7 +8582,7 @@
         <v>-52.7327327327327</v>
       </c>
       <c r="B962">
-        <v>2.33217163931278E-2</v>
+        <v>2.5873509999999999E-2</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
@@ -8590,7 +8590,7 @@
         <v>-52.662662662662598</v>
       </c>
       <c r="B963">
-        <v>2.3194573421797801E-2</v>
+        <v>2.5733104999999999E-2</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
@@ -8598,7 +8598,7 @@
         <v>-52.592592592592602</v>
       </c>
       <c r="B964">
-        <v>2.3068480592044398E-2</v>
+        <v>2.5593853E-2</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
@@ -8606,7 +8606,7 @@
         <v>-52.5225225225225</v>
       </c>
       <c r="B965">
-        <v>2.2943426317798801E-2</v>
+        <v>2.5455742E-2</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
         <v>-52.452452452452398</v>
       </c>
       <c r="B966">
-        <v>2.2819399172079199E-2</v>
+        <v>2.5318758E-2</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
@@ -8622,7 +8622,7 @@
         <v>-52.382382382382303</v>
       </c>
       <c r="B967">
-        <v>2.2696387884392901E-2</v>
+        <v>2.5182889999999999E-2</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
@@ -8630,7 +8630,7 @@
         <v>-52.312312312312301</v>
       </c>
       <c r="B968">
-        <v>2.2574381338186799E-2</v>
+        <v>2.5048126E-2</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
         <v>-52.242242242242199</v>
       </c>
       <c r="B969">
-        <v>2.24533685683465E-2</v>
+        <v>2.4914453E-2</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
@@ -8646,7 +8646,7 @@
         <v>-52.172172172172097</v>
       </c>
       <c r="B970">
-        <v>2.2333338758741401E-2</v>
+        <v>2.4781859999999999E-2</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
         <v>-52.102102102102101</v>
       </c>
       <c r="B971">
-        <v>2.22142812398166E-2</v>
+        <v>2.4650334999999999E-2</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
@@ -8662,7 +8662,7 @@
         <v>-52.032032032031999</v>
       </c>
       <c r="B972">
-        <v>2.20961854862286E-2</v>
+        <v>2.4519866000000001E-2</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
@@ -8670,7 +8670,7 @@
         <v>-51.961961961961897</v>
       </c>
       <c r="B973">
-        <v>2.1979041114526001E-2</v>
+        <v>2.4390443000000001E-2</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
@@ -8678,7 +8678,7 @@
         <v>-51.891891891891902</v>
       </c>
       <c r="B974">
-        <v>2.18628378808726E-2</v>
+        <v>2.4262054000000002E-2</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
@@ -8686,7 +8686,7 @@
         <v>-51.8218218218218</v>
       </c>
       <c r="B975">
-        <v>2.1747565678812801E-2</v>
+        <v>2.4134686999999998E-2</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
@@ -8694,7 +8694,7 @@
         <v>-51.751751751751698</v>
       </c>
       <c r="B976">
-        <v>2.1633214537078602E-2</v>
+        <v>2.4008333E-2</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
@@ -8702,7 +8702,7 @@
         <v>-51.681681681681603</v>
       </c>
       <c r="B977">
-        <v>2.1519774617436E-2</v>
+        <v>2.3882981000000001E-2</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
@@ -8710,7 +8710,7 @@
         <v>-51.6116116116116</v>
       </c>
       <c r="B978">
-        <v>2.14072362125723E-2</v>
+        <v>2.3758619000000002E-2</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
@@ -8718,7 +8718,7 @@
         <v>-51.541541541541498</v>
       </c>
       <c r="B979">
-        <v>2.1295589744021098E-2</v>
+        <v>2.3635237999999999E-2</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
@@ -8726,7 +8726,7 @@
         <v>-51.471471471471403</v>
       </c>
       <c r="B980">
-        <v>2.1184825760125901E-2</v>
+        <v>2.3512826000000001E-2</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
@@ -8734,7 +8734,7 @@
         <v>-51.401401401401401</v>
       </c>
       <c r="B981">
-        <v>2.1074934934040401E-2</v>
+        <v>2.3391374999999999E-2</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
@@ -8742,7 +8742,7 @@
         <v>-51.331331331331299</v>
       </c>
       <c r="B982">
-        <v>2.0965908061765001E-2</v>
+        <v>2.3270873000000001E-2</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
@@ -8750,7 +8750,7 @@
         <v>-51.261261261261197</v>
       </c>
       <c r="B983">
-        <v>2.0857736060220199E-2</v>
+        <v>2.3151311000000001E-2</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
@@ -8758,7 +8758,7 @@
         <v>-51.191191191191201</v>
       </c>
       <c r="B984">
-        <v>2.0750409965353E-2</v>
+        <v>2.303268E-2</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
@@ -8766,7 +8766,7 @@
         <v>-51.121121121121099</v>
       </c>
       <c r="B985">
-        <v>2.0643920930279499E-2</v>
+        <v>2.2914968000000001E-2</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
@@ -8774,7 +8774,7 @@
         <v>-51.051051051050997</v>
       </c>
       <c r="B986">
-        <v>2.0538260223459101E-2</v>
+        <v>2.2798168000000001E-2</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
@@ -8782,7 +8782,7 @@
         <v>-50.980980980980902</v>
       </c>
       <c r="B987">
-        <v>2.0433419226903199E-2</v>
+        <v>2.2682269000000001E-2</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
@@ -8790,7 +8790,7 @@
         <v>-50.9109109109109</v>
       </c>
       <c r="B988">
-        <v>2.0329389434414799E-2</v>
+        <v>2.2567262000000001E-2</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
@@ -8798,7 +8798,7 @@
         <v>-50.840840840840798</v>
       </c>
       <c r="B989">
-        <v>2.0226162449860599E-2</v>
+        <v>2.2453138000000001E-2</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
@@ -8806,7 +8806,7 @@
         <v>-50.770770770770703</v>
       </c>
       <c r="B990">
-        <v>2.01237299854727E-2</v>
+        <v>2.2339887999999999E-2</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
         <v>-50.7007007007007</v>
       </c>
       <c r="B991">
-        <v>2.0022083860182401E-2</v>
+        <v>2.2227502999999999E-2</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>-50.630630630630598</v>
       </c>
       <c r="B992">
-        <v>1.9921215997981499E-2</v>
+        <v>2.2115974E-2</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
@@ -8830,7 +8830,7 @@
         <v>-50.560560560560504</v>
       </c>
       <c r="B993">
-        <v>1.9821118426314299E-2</v>
+        <v>2.2005292999999999E-2</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
@@ -8838,7 +8838,7 @@
         <v>-50.490490490490501</v>
       </c>
       <c r="B994">
-        <v>1.9721783274497601E-2</v>
+        <v>2.189545E-2</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
@@ -8846,7 +8846,7 @@
         <v>-50.420420420420399</v>
       </c>
       <c r="B995">
-        <v>1.9623202772167801E-2</v>
+        <v>2.1786438000000002E-2</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
@@ -8854,7 +8854,7 @@
         <v>-50.350350350350297</v>
       </c>
       <c r="B996">
-        <v>1.9525369247756701E-2</v>
+        <v>2.1678247000000001E-2</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
@@ -8862,7 +8862,7 @@
         <v>-50.280280280280202</v>
       </c>
       <c r="B997">
-        <v>1.9428275126992901E-2</v>
+        <v>2.1570869999999999E-2</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
         <v>-50.210210210210199</v>
       </c>
       <c r="B998">
-        <v>1.9331912931430301E-2</v>
+        <v>2.1464298999999999E-2</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
@@ -8878,7 +8878,7 @@
         <v>-50.140140140140097</v>
       </c>
       <c r="B999">
-        <v>1.9236275277001499E-2</v>
+        <v>2.1358525E-2</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
@@ -8886,7 +8886,7 @@
         <v>-50.070070070070003</v>
       </c>
       <c r="B1000">
-        <v>1.9141354872597601E-2</v>
+        <v>2.1253541000000001E-2</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
@@ -8894,7 +8894,7 @@
         <v>-50</v>
       </c>
       <c r="B1001">
-        <v>1.90471445186715E-2</v>
+        <v>2.1149338E-2</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
